--- a/Train/Assets/_Data_Story/Story_DataTable.xlsx
+++ b/Train/Assets/_Data_Story/Story_DataTable.xlsx
@@ -781,7 +781,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B4" s="1">
         <v>3.0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B5" s="1">
         <v>2.0</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B14" s="5">
         <v>3.0</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B15" s="5">
         <v>3.0</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="16">
       <c r="A16" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B16" s="5">
         <v>3.0</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="17">
       <c r="A17" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B17" s="5">
         <v>3.0</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="18">
       <c r="A18" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B18" s="5">
         <v>3.0</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="19">
       <c r="A19" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B19" s="5">
         <v>3.0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="20">
       <c r="A20" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B20" s="5">
         <v>3.0</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="21">
       <c r="A21" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B21" s="5">
         <v>3.0</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="22">
       <c r="A22" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B22" s="5">
         <v>3.0</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="23">
       <c r="A23" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B23" s="5">
         <v>3.0</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="24">
       <c r="A24" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B24" s="5">
         <v>3.0</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="25">
       <c r="A25" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B25" s="5">
         <v>3.0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B26" s="5">
         <v>3.0</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B27" s="5">
         <v>3.0</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="28">
       <c r="A28" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B28" s="5">
         <v>3.0</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="29">
       <c r="A29" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B29" s="5">
         <v>3.0</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="30">
       <c r="A30" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B30" s="5">
         <v>3.0</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="31">
       <c r="A31" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B31" s="5">
         <v>3.0</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="32">
       <c r="A32" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B32" s="5">
         <v>3.0</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="33">
       <c r="A33" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B33" s="5">
         <v>3.0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="34">
       <c r="A34" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B34" s="5">
         <v>3.0</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="35">
       <c r="A35" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B35" s="5">
         <v>3.0</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="36">
       <c r="A36" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B36" s="5">
         <v>3.0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="37">
       <c r="A37" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B37" s="5">
         <v>3.0</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="38">
       <c r="A38" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B38" s="5">
         <v>3.0</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="39">
       <c r="A39" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B39" s="5">
         <v>3.0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="40">
       <c r="A40" s="4">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B40" s="4">
         <v>2.0</v>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="41">
       <c r="A41" s="4">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B41" s="4">
         <v>2.0</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="42">
       <c r="A42" s="4">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B42" s="4">
         <v>2.0</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="43">
       <c r="A43" s="4">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B43" s="4">
         <v>2.0</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="44">
       <c r="A44" s="4">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B44" s="4">
         <v>2.0</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="45">
       <c r="A45" s="4">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B45" s="4">
         <v>2.0</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="46">
       <c r="A46" s="4">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B46" s="4">
         <v>2.0</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="47">
       <c r="A47" s="4">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B47" s="4">
         <v>2.0</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="48">
       <c r="A48" s="4">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B48" s="4">
         <v>2.0</v>
@@ -2205,6 +2205,21 @@
       <c r="I48" s="1" t="s">
         <v>148</v>
       </c>
+    </row>
+    <row r="49">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50">
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51">
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52">
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53">
+      <c r="F53" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Train/Assets/_Data_Story/Story_DataTable.xlsx
+++ b/Train/Assets/_Data_Story/Story_DataTable.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="169">
   <si>
     <t>Stage_Index</t>
   </si>
@@ -20,6 +20,54 @@
     <t>Branch_Index</t>
   </si>
   <si>
+    <t>Story_Title_Num</t>
+  </si>
+  <si>
+    <t>Story_Title_Kr</t>
+  </si>
+  <si>
+    <t>Story_Title_En</t>
+  </si>
+  <si>
+    <t>Story_Title_Jp</t>
+  </si>
+  <si>
+    <t>배송 시작</t>
+  </si>
+  <si>
+    <t>Delivery Begins</t>
+  </si>
+  <si>
+    <t>はいそうかいし</t>
+  </si>
+  <si>
+    <t>급격한 습격 빈도</t>
+  </si>
+  <si>
+    <t>Sudden Raid Frequency</t>
+  </si>
+  <si>
+    <t>きゅうげきなしゅうげきひんど</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 페요테의 만남</t>
+  </si>
+  <si>
+    <t>Encounter with Peyote</t>
+  </si>
+  <si>
+    <t>ぺよーてとのであい</t>
+  </si>
+  <si>
+    <t>의심</t>
+  </si>
+  <si>
+    <t>Suspicion</t>
+  </si>
+  <si>
+    <t>うたがい</t>
+  </si>
+  <si>
     <t>Stage_Num</t>
   </si>
   <si>
@@ -29,6 +77,9 @@
     <t>Speaker_Index</t>
   </si>
   <si>
+    <t>BackLog_Color</t>
+  </si>
+  <si>
     <t>ko_name</t>
   </si>
   <si>
@@ -47,6 +98,9 @@
     <t>jp_dialog</t>
   </si>
   <si>
+    <t>F7A84B</t>
+  </si>
+  <si>
     <t>메리 골드</t>
   </si>
   <si>
@@ -68,6 +122,9 @@
     <t>依頼が来たな。</t>
   </si>
   <si>
+    <t>ECE5CA</t>
+  </si>
+  <si>
     <t>메리골드에게,</t>
   </si>
   <si>
@@ -174,6 +231,9 @@
   </si>
   <si>
     <t>人だよね？</t>
+  </si>
+  <si>
+    <t>CCC3AB</t>
   </si>
   <si>
     <t>???</t>
@@ -478,7 +538,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +559,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF7A84B"/>
+        <bgColor rgb="FFF7A84B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE5CA"/>
+        <bgColor rgb="FFECE5CA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
@@ -509,6 +581,12 @@
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCC3AB"/>
+        <bgColor rgb="FFCCC3AB"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -516,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -533,6 +611,15 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -754,6 +841,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="13.63"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -762,6 +852,18 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -770,6 +872,18 @@
       <c r="B2" s="2">
         <v>1.0</v>
       </c>
+      <c r="C2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -778,6 +892,18 @@
       <c r="B3" s="1">
         <v>0.0</v>
       </c>
+      <c r="C3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -785,6 +911,18 @@
       </c>
       <c r="B4" s="1">
         <v>3.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -793,6 +931,18 @@
       </c>
       <c r="B5" s="1">
         <v>2.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -816,31 +966,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -853,23 +1006,26 @@
       <c r="C2" s="3">
         <v>0.0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -882,23 +1038,26 @@
       <c r="C3" s="3">
         <v>0.0</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -911,23 +1070,26 @@
       <c r="C4" s="3">
         <v>1.0</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
+      <c r="D4" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -940,23 +1102,26 @@
       <c r="C5" s="3">
         <v>0.0</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -969,23 +1134,26 @@
       <c r="C6" s="3">
         <v>0.0</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -998,23 +1166,26 @@
       <c r="C7" s="3">
         <v>0.0</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -1027,1183 +1198,1306 @@
       <c r="C8" s="3">
         <v>0.0</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="A9" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="6">
         <v>0.0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="A10" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="6">
         <v>0.0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="A11" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="6">
         <v>0.0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="A12" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="6">
         <v>0.0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="J12" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="A13" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="6">
         <v>0.0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B14" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>49</v>
+      <c r="A14" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B15" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>50</v>
+      <c r="A15" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B15" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B16" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>52</v>
+      <c r="A16" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B17" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="A17" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C17" s="7">
         <v>2.0</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>56</v>
+      <c r="D17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B18" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>60</v>
+      <c r="A18" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B19" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>63</v>
+      <c r="A19" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B20" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>66</v>
+      <c r="A20" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B21" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="A21" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B21" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B23" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B24" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B25" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B26" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B27" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B28" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B29" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B30" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B31" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B32" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B33" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B34" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B35" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B22" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="G35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B36" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B23" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B24" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B25" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B26" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B27" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B28" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I28" s="1" t="s">
+      <c r="E36" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B29" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C29" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="F36" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B30" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="H36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B31" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B32" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C32" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B33" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B34" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C34" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B35" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C35" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B36" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C36" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>115</v>
+      <c r="J36" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B37" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C37" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>117</v>
+      <c r="A37" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B37" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>118</v>
+        <v>32</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B38" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C38" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>49</v>
+      <c r="A38" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B38" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B39" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C39" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>120</v>
+      <c r="A39" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B39" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>121</v>
+        <v>98</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4">
+      <c r="A40" s="6">
         <v>6.0</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="6">
         <v>2.0</v>
       </c>
-      <c r="C40" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>123</v>
+      <c r="C40" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4">
+      <c r="A41" s="6">
         <v>6.0</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="6">
         <v>2.0</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="6">
         <v>0.0</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>126</v>
+        <v>28</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>127</v>
+        <v>32</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4">
+      <c r="A42" s="6">
         <v>6.0</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="6">
         <v>2.0</v>
       </c>
-      <c r="C42" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>129</v>
+      <c r="C42" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>130</v>
+        <v>98</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4">
+      <c r="A43" s="6">
         <v>6.0</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="6">
         <v>2.0</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="6">
         <v>0.0</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>132</v>
+        <v>28</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>133</v>
+        <v>32</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4">
+      <c r="A44" s="6">
         <v>6.0</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="6">
         <v>2.0</v>
       </c>
-      <c r="C44" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>135</v>
+      <c r="C44" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>136</v>
+        <v>98</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4">
+      <c r="A45" s="6">
         <v>6.0</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="6">
         <v>2.0</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="6">
         <v>0.0</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>138</v>
+        <v>28</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>139</v>
+        <v>32</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4">
+      <c r="A46" s="6">
         <v>6.0</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="6">
         <v>2.0</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="6">
         <v>0.0</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>141</v>
+        <v>28</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>142</v>
+        <v>32</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4">
+      <c r="A47" s="6">
         <v>6.0</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="6">
         <v>2.0</v>
       </c>
-      <c r="C47" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>144</v>
+      <c r="C47" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>145</v>
+        <v>98</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4">
+      <c r="A48" s="6">
         <v>6.0</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="6">
         <v>2.0</v>
       </c>
-      <c r="C48" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>147</v>
+      <c r="C48" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>148</v>
+        <v>98</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="49">

--- a/Train/Assets/_Data_Story/Story_DataTable.xlsx
+++ b/Train/Assets/_Data_Story/Story_DataTable.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="Story_Branch" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Story" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Branch_Information" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="230">
   <si>
     <t>Stage_Index</t>
   </si>
@@ -167,7 +168,7 @@
     <t>Well... I guess it doesn’t matter... I just need to do my job right.</t>
   </si>
   <si>
-    <t>まあ… 関係ないか… 自分の仕事さえちゃんとやればいいんだ。</t>
+    <t>まあ... 関係ないか... 自分の仕事さえちゃんとやればいいんだ。</t>
   </si>
   <si>
     <t>뭔가 이상한데... 습격이 평소보다 많은 느낌이야.</t>
@@ -437,13 +438,13 @@
     <t>マリゴールド、普段からこんなに襲撃が多いの？</t>
   </si>
   <si>
-    <t xml:space="preserve"> …아니, 평소보다 많지만 가끔씩 습격이 잦아지는 때가 있긴 해.</t>
-  </si>
-  <si>
-    <t>…No, there are more than usual, but sometimes there are times when attacks become frequent.</t>
-  </si>
-  <si>
-    <t>…いいえ、普段より多いけど、たまに襲撃が頻繁になる時期があるわ。</t>
+    <t>...아니, 평소보다 많지만 가끔씩 습격이 잦아지는 때가 있긴 해.</t>
+  </si>
+  <si>
+    <t>...No, there are more than usual, but sometimes there are times when attacks become frequent.</t>
+  </si>
+  <si>
+    <t>...いいえ、普段より多いけど、たまに襲撃が頻繁になる時期があるわ。</t>
   </si>
   <si>
     <t>그 때도 지금 처럼 많았어?</t>
@@ -464,13 +465,13 @@
     <t>そうではないけど、たまに人生には特異なことがあるのよ。それだと思う。</t>
   </si>
   <si>
-    <t>그…그런건가…그래도 이상하다거나 생각한 적은 없어?</t>
+    <t>그... 그런건가... 그래도 이상하다거나 생각한 적은 없어?</t>
   </si>
   <si>
     <t>I... Is that so... But haven’t you ever thought it was strange or anything?</t>
   </si>
   <si>
-    <t>そ…そうなのか...でも変だと思ったことはないの？</t>
+    <t>そ...そうなのか...でも変だと思ったことはないの？</t>
   </si>
   <si>
     <t>딱히 없어. 이런 일들에 일일히 신경쓰면 피곤하니까.</t>
@@ -491,22 +492,22 @@
     <t>こういうことにいちいち気を取られていたら疲れるから。</t>
   </si>
   <si>
-    <t>…그렇구나.</t>
+    <t>...그렇구나.</t>
   </si>
   <si>
     <t>...I see.</t>
   </si>
   <si>
-    <t>…そうなんだ。</t>
-  </si>
-  <si>
-    <t>(할 말을 잃었다…너무 무신경해…)</t>
+    <t>...そうなんだ。</t>
+  </si>
+  <si>
+    <t>(할 말을 잃었다...너무 무신경해...)</t>
   </si>
   <si>
     <t>(Speechless... Too indifferent...)</t>
   </si>
   <si>
-    <t>(言葉を失う...あまりにも無頓着…)</t>
+    <t>(言葉を失う...あまりにも無頓着...)</t>
   </si>
   <si>
     <t>뭐해? 물자보충하러 가야지.</t>
@@ -518,7 +519,7 @@
     <t>何してるの？ 物資補充に行かなきゃ。</t>
   </si>
   <si>
-    <t>....어? 으응, 그래.</t>
+    <t>...어? 으응, 그래.</t>
   </si>
   <si>
     <t>Huh? Oh, yeah, sure.</t>
@@ -533,7 +534,7 @@
     <t>Is it really okay not to worry about this?</t>
   </si>
   <si>
-    <t>本当に気にしなくていいのかな…</t>
+    <t>本当に気にしなくていいのかな...</t>
   </si>
   <si>
     <t>으악! 뭐, 뭐야? 무슨일이야?! 메리골드!</t>
@@ -587,7 +588,7 @@
     <t>Ah... This has never happened before... The most we ever had were a few wandering monsters... Can we even fight them?</t>
   </si>
   <si>
-    <t>はあ…こんなことは一度もなかったのに…せいぜい通りすがりの怪物が一、二匹って感じだったけど…戦えるのかな…</t>
+    <t>はあ...こんなことは一度もなかったのに...せいぜい通りすがりの怪物が一、二匹って感じだったけど...戦えるのかな...</t>
   </si>
   <si>
     <t>그렇게 말할 시간에 준비해. 내가 전방을 맡을 테니까 후방을 부탁할게.</t>
@@ -605,7 +606,7 @@
     <t>O-okay... You're really calm about this...</t>
   </si>
   <si>
-    <t>う、うん…すごく冷静だね…</t>
+    <t>う、うん...すごく冷静だね...</t>
   </si>
   <si>
     <r>
@@ -656,7 +657,73 @@
     <t>説明はここまで。行こう。</t>
   </si>
   <si>
-    <t>ㅍ</t>
+    <t>죽는 줄 알았네...</t>
+  </si>
+  <si>
+    <t>어디 보자... 대충 잔해도 다 치웠고... 메리골드!</t>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+  </si>
+  <si>
+    <t>안 보이네... 어디 갔지?</t>
+  </si>
+  <si>
+    <t>메리골... 아, 찾았다. 뭐 하고 있는 거지?</t>
+  </si>
+  <si>
+    <t>여기는 소일호, 현재 위치 제1구역 6번. 대응 가능한 인원에 비해 습격이 많아져 지원 요청합니다.</t>
+  </si>
+  <si>
+    <t>...네? 위험부담이 크다니... 이전에도 이런 상황은 있지 않았습니까? 그때는 지원해 주셨지 않았습니까.</t>
+  </si>
+  <si>
+    <t>어쨌든 안된다니... 확실한 이유가... 여보세요?</t>
+  </si>
+  <si>
+    <t>끊었잖아...</t>
+  </si>
+  <si>
+    <t>이젠 받지도 않네.</t>
+  </si>
+  <si>
+    <t>어... 무슨 일이야? 뭔가 심각해 보이는데...</t>
+  </si>
+  <si>
+    <t>지원 요청을 거부당했어. 거절당한 이유도 불분명하고. 이전에 이런 일은 별로 없었는데.</t>
+  </si>
+  <si>
+    <t>그... 그거 괜찮은 거야? 도움을 줄 수 없다니...</t>
+  </si>
+  <si>
+    <t>안 괜찮지.</t>
+  </si>
+  <si>
+    <t>일났네... 그런데 왜 갑자기 지원을 하지 않는다는 거지? 이유라도 있나?</t>
+  </si>
+  <si>
+    <t>글쎄, 하지만 이유를 알아낼 방법도 없고 이유를 알아낸다 해도 오지 않는 지원이 오는 것도 아니니까. 실망하고 있을 시간에 어떻게 할지 생각을 하는 게 더 나아.</t>
+  </si>
+  <si>
+    <t>그런가? 틀린 말은 아니긴 하지만... 어떻게 인원을 보충하려고?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">본사에서 지원은 받지 못하게 되었으니... 내가 직접 사람을 찾아서 고용을 하는 수밖에. 다음 역에 도착하면 용병을 고용해서 인원을 보충하는 게 좋겠어. </t>
+  </si>
+  <si>
+    <t>아니면 적당한 사람이 보이면 채용해야지. 너처럼.</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>메모장</t>
+  </si>
+  <si>
+    <t>페요테 그림자</t>
+  </si>
+  <si>
+    <t>빈 칸</t>
   </si>
 </sst>
 </file>
@@ -791,6 +858,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3060,9 +3131,503 @@
         <v>206</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
     <row r="62">
+      <c r="A62" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="F62" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B63" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B64" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B65" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B66" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B67" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B68" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B69" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B70" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B71" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B72" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B73" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B74" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B75" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B76" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B77" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B78" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B79" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B80" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/Train/Assets/_Data_Story/Story_DataTable.xlsx
+++ b/Train/Assets/_Data_Story/Story_DataTable.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="356">
   <si>
     <t>Stage_Index</t>
   </si>
@@ -33,6 +33,9 @@
     <t>Story_Title_Jp</t>
   </si>
   <si>
+    <t>BackGround</t>
+  </si>
+  <si>
     <t>메리골드의 거점</t>
   </si>
   <si>
@@ -88,6 +91,15 @@
   </si>
   <si>
     <t>BackLog_Color</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>Sprite</t>
   </si>
   <si>
     <t>ko_name</t>
@@ -682,9 +694,6 @@
   </si>
   <si>
     <t>さてと...大体の瓦礫も片付けたし...マリーゴールド！</t>
-  </si>
-  <si>
-    <t>FFFFFF</t>
   </si>
   <si>
     <t>안 보이네... 어디 갔지?</t>
@@ -1493,6 +1502,9 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -1505,13 +1517,13 @@
         <v>1.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1525,13 +1537,13 @@
         <v>2.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -1545,13 +1557,13 @@
         <v>3.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1565,13 +1577,13 @@
         <v>4.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -1585,13 +1597,13 @@
         <v>5.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -1605,13 +1617,13 @@
         <v>6.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -1625,13 +1637,13 @@
         <v>7.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1645,13 +1657,13 @@
         <v>8.0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1670,39 +1682,48 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="5" max="5" width="11.5"/>
-    <col customWidth="1" min="6" max="6" width="8.75"/>
+    <col customWidth="1" min="6" max="6" width="10.38"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -1716,25 +1737,25 @@
         <v>0.0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -1748,25 +1769,25 @@
         <v>0.0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>38</v>
+      <c r="I3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -1780,25 +1801,25 @@
         <v>1.0</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="4" t="s">
         <v>45</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -1812,25 +1833,25 @@
         <v>0.0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -1844,25 +1865,25 @@
         <v>0.0</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1876,25 +1897,25 @@
         <v>0.0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1908,25 +1929,25 @@
         <v>0.0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -1940,25 +1961,25 @@
         <v>0.0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -1972,25 +1993,25 @@
         <v>0.0</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -2004,25 +2025,25 @@
         <v>0.0</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>35</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -2036,25 +2057,25 @@
         <v>0.0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -2068,25 +2089,25 @@
         <v>0.0</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -2100,25 +2121,25 @@
         <v>0.0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>35</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -2132,25 +2153,25 @@
         <v>2.0</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="1" t="s">
         <v>76</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -2164,25 +2185,25 @@
         <v>0.0</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>35</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
@@ -2193,28 +2214,28 @@
         <v>3.0</v>
       </c>
       <c r="C17" s="9">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18">
@@ -2225,28 +2246,28 @@
         <v>3.0</v>
       </c>
       <c r="C18" s="9">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -2257,28 +2278,28 @@
         <v>3.0</v>
       </c>
       <c r="C19" s="9">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="20">
@@ -2292,25 +2313,25 @@
         <v>0.0</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>92</v>
+        <v>35</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21">
@@ -2324,25 +2345,25 @@
         <v>1.0</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="I21" s="9" t="s">
         <v>98</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="22">
@@ -2356,25 +2377,25 @@
         <v>1.0</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>101</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -2388,25 +2409,25 @@
         <v>0.0</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>104</v>
+        <v>35</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="24">
@@ -2420,25 +2441,25 @@
         <v>0.0</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>107</v>
+        <v>35</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="25">
@@ -2452,25 +2473,25 @@
         <v>1.0</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>110</v>
+      <c r="I25" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="26">
@@ -2484,25 +2505,25 @@
         <v>0.0</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>113</v>
+        <v>35</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="27">
@@ -2516,25 +2537,25 @@
         <v>1.0</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>116</v>
+      <c r="I27" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28">
@@ -2548,25 +2569,25 @@
         <v>0.0</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>119</v>
+        <v>35</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="29">
@@ -2580,25 +2601,25 @@
         <v>0.0</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>122</v>
+        <v>35</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="30">
@@ -2612,25 +2633,25 @@
         <v>1.0</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>125</v>
+      <c r="I30" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="31">
@@ -2644,25 +2665,25 @@
         <v>0.0</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>128</v>
+        <v>35</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="32">
@@ -2676,25 +2697,25 @@
         <v>1.0</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>131</v>
+      <c r="I32" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="33">
@@ -2708,25 +2729,25 @@
         <v>0.0</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>134</v>
+        <v>35</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="34">
@@ -2740,25 +2761,25 @@
         <v>1.0</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>67</v>
+      <c r="I34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="35">
@@ -2772,25 +2793,25 @@
         <v>1.0</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>137</v>
+      <c r="I35" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="36">
@@ -2804,25 +2825,25 @@
         <v>0.0</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>140</v>
+        <v>35</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="37">
@@ -2836,25 +2857,25 @@
         <v>1.0</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>67</v>
+      <c r="I37" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="38">
@@ -2868,25 +2889,25 @@
         <v>1.0</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>143</v>
+      <c r="I38" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="39">
@@ -2900,25 +2921,25 @@
         <v>1.0</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>146</v>
+      <c r="I39" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="40">
@@ -2932,25 +2953,25 @@
         <v>0.0</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>149</v>
+        <v>35</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="41">
@@ -2964,25 +2985,25 @@
         <v>1.0</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>152</v>
+      <c r="I41" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="42">
@@ -2996,25 +3017,25 @@
         <v>0.0</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>155</v>
+        <v>35</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="43">
@@ -3028,25 +3049,25 @@
         <v>1.0</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>158</v>
+      <c r="I43" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="44">
@@ -3060,25 +3081,25 @@
         <v>0.0</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>161</v>
+        <v>35</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="45">
@@ -3092,25 +3113,25 @@
         <v>1.0</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>164</v>
+      <c r="I45" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="46">
@@ -3124,25 +3145,25 @@
         <v>1.0</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>167</v>
+      <c r="I46" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="47">
@@ -3156,25 +3177,25 @@
         <v>0.0</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>170</v>
+        <v>35</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="48">
@@ -3188,25 +3209,25 @@
         <v>1.0</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H48" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>173</v>
+      <c r="I48" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="49">
@@ -3220,25 +3241,25 @@
         <v>1.0</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>176</v>
+      <c r="I49" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="50">
@@ -3252,25 +3273,25 @@
         <v>1.0</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>179</v>
+      <c r="I50" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="51">
@@ -3284,25 +3305,25 @@
         <v>0.0</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>182</v>
+        <v>35</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="52">
@@ -3316,25 +3337,25 @@
         <v>1.0</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="I52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>185</v>
+      <c r="I52" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="53">
@@ -3348,25 +3369,25 @@
         <v>1.0</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="J53" s="1" t="s">
-        <v>188</v>
+      <c r="I53" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="54">
@@ -3380,25 +3401,25 @@
         <v>1.0</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H54" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>191</v>
+      <c r="I54" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="55">
@@ -3412,25 +3433,25 @@
         <v>1.0</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="J55" s="1" t="s">
-        <v>194</v>
+      <c r="I55" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="56">
@@ -3444,25 +3465,25 @@
         <v>0.0</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>197</v>
+        <v>35</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="57">
@@ -3476,25 +3497,25 @@
         <v>1.0</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>200</v>
+      <c r="I57" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="58">
@@ -3508,25 +3529,25 @@
         <v>0.0</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>203</v>
+        <v>35</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="59">
@@ -3540,25 +3561,25 @@
         <v>0.0</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>206</v>
+        <v>35</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="60">
@@ -3572,25 +3593,25 @@
         <v>0.0</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>209</v>
+        <v>35</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="61">
@@ -3598,31 +3619,31 @@
         <v>5.0</v>
       </c>
       <c r="B61" s="12">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C61" s="12">
         <v>1.0</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>211</v>
+        <v>76</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J61" s="13" t="s">
-        <v>212</v>
+        <v>214</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M61" s="13" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="62">
@@ -3630,31 +3651,31 @@
         <v>5.0</v>
       </c>
       <c r="B62" s="12">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C62" s="12">
         <v>1.0</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>214</v>
+        <v>76</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J62" s="13" t="s">
-        <v>215</v>
+        <v>217</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M62" s="13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="63">
@@ -3662,13 +3683,19 @@
         <v>5.0</v>
       </c>
       <c r="B63" s="12">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C63" s="12">
         <v>2.0</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>216</v>
+        <v>35</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="64">
@@ -3676,31 +3703,31 @@
         <v>5.0</v>
       </c>
       <c r="B64" s="12">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C64" s="12">
         <v>1.0</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>218</v>
+        <v>76</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="65">
@@ -3708,31 +3735,31 @@
         <v>5.0</v>
       </c>
       <c r="B65" s="12">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C65" s="12">
         <v>1.0</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>221</v>
+        <v>76</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K65" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="66">
@@ -3740,31 +3767,31 @@
         <v>5.0</v>
       </c>
       <c r="B66" s="12">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C66" s="12">
         <v>0.0</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>225</v>
+        <v>35</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="67">
@@ -3772,31 +3799,31 @@
         <v>5.0</v>
       </c>
       <c r="B67" s="12">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C67" s="12">
         <v>0.0</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>228</v>
+        <v>81</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="68">
@@ -3804,31 +3831,31 @@
         <v>5.0</v>
       </c>
       <c r="B68" s="12">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C68" s="12">
         <v>0.0</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>231</v>
+        <v>81</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="69">
@@ -3836,31 +3863,31 @@
         <v>5.0</v>
       </c>
       <c r="B69" s="12">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C69" s="12">
         <v>0.0</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>234</v>
+        <v>81</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="70">
@@ -3868,31 +3895,31 @@
         <v>5.0</v>
       </c>
       <c r="B70" s="12">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C70" s="12">
         <v>0.0</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="71">
@@ -3900,31 +3927,31 @@
         <v>5.0</v>
       </c>
       <c r="B71" s="12">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C71" s="12">
         <v>0.0</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>237</v>
+        <v>81</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="72">
@@ -3932,31 +3959,31 @@
         <v>5.0</v>
       </c>
       <c r="B72" s="12">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C72" s="12">
         <v>1.0</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>239</v>
+        <v>97</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="73">
@@ -3964,31 +3991,31 @@
         <v>5.0</v>
       </c>
       <c r="B73" s="12">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C73" s="12">
         <v>0.0</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>243</v>
+        <v>81</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="74">
@@ -3996,31 +4023,31 @@
         <v>5.0</v>
       </c>
       <c r="B74" s="12">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C74" s="12">
         <v>1.0</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>245</v>
+        <v>97</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="75">
@@ -4028,31 +4055,31 @@
         <v>5.0</v>
       </c>
       <c r="B75" s="12">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C75" s="12">
         <v>0.0</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>249</v>
+        <v>81</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="76">
@@ -4060,31 +4087,31 @@
         <v>5.0</v>
       </c>
       <c r="B76" s="12">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C76" s="12">
         <v>1.0</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>251</v>
+        <v>97</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="77">
@@ -4092,31 +4119,31 @@
         <v>5.0</v>
       </c>
       <c r="B77" s="12">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C77" s="12">
         <v>0.0</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>255</v>
+        <v>81</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="78">
@@ -4124,31 +4151,31 @@
         <v>5.0</v>
       </c>
       <c r="B78" s="12">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C78" s="12">
         <v>1.0</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>257</v>
+        <v>97</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="79">
@@ -4156,31 +4183,31 @@
         <v>5.0</v>
       </c>
       <c r="B79" s="12">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C79" s="12">
         <v>0.0</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>261</v>
+        <v>81</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="80">
@@ -4188,31 +4215,31 @@
         <v>5.0</v>
       </c>
       <c r="B80" s="12">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C80" s="12">
         <v>0.0</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>264</v>
+        <v>81</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="81">
@@ -4226,25 +4253,25 @@
         <v>1.0</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>266</v>
+        <v>97</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="82">
@@ -4258,25 +4285,25 @@
         <v>0.0</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>270</v>
+        <v>81</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="83">
@@ -4290,25 +4317,25 @@
         <v>1.0</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>272</v>
+        <v>97</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="84">
@@ -4322,25 +4349,25 @@
         <v>1.0</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>275</v>
+        <v>97</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="85">
@@ -4354,25 +4381,25 @@
         <v>0.0</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>279</v>
+        <v>81</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="86">
@@ -4386,25 +4413,25 @@
         <v>1.0</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>281</v>
+        <v>97</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="87">
@@ -4418,25 +4445,25 @@
         <v>1.0</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>284</v>
+        <v>97</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="88">
@@ -4450,25 +4477,25 @@
         <v>0.0</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>288</v>
+        <v>81</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="89">
@@ -4482,25 +4509,25 @@
         <v>1.0</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>290</v>
+        <v>97</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="90">
@@ -4514,25 +4541,25 @@
         <v>1.0</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>293</v>
+        <v>97</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="91">
@@ -4546,25 +4573,25 @@
         <v>0.0</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>297</v>
+        <v>81</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="92">
@@ -4578,25 +4605,25 @@
         <v>1.0</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>299</v>
+        <v>97</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="93">
@@ -4610,25 +4637,25 @@
         <v>0.0</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>303</v>
+        <v>81</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="94">
@@ -4642,25 +4669,25 @@
         <v>0.0</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="I94" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>306</v>
+        <v>81</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="95">
@@ -4674,25 +4701,25 @@
         <v>1.0</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>308</v>
+        <v>97</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="96">
@@ -4706,25 +4733,25 @@
         <v>0.0</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I96" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>312</v>
+        <v>81</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="97">
@@ -4738,25 +4765,25 @@
         <v>1.0</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>314</v>
+        <v>97</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="98">
@@ -4770,25 +4797,25 @@
         <v>0.0</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>318</v>
+        <v>81</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="99">
@@ -4802,25 +4829,25 @@
         <v>1.0</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>320</v>
+        <v>97</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="100">
@@ -4834,25 +4861,25 @@
         <v>1.0</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>323</v>
+        <v>97</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="101">
@@ -4866,25 +4893,25 @@
         <v>1.0</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>326</v>
+        <v>97</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="102">
@@ -4898,25 +4925,25 @@
         <v>0.0</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>330</v>
+        <v>81</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="103">
@@ -4930,25 +4957,25 @@
         <v>1.0</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>332</v>
+        <v>97</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="104">
@@ -4962,25 +4989,25 @@
         <v>0.0</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>336</v>
+        <v>81</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="105">
@@ -4994,25 +5021,25 @@
         <v>0.0</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>339</v>
+        <v>81</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="106">
@@ -5026,25 +5053,25 @@
         <v>1.0</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>341</v>
+        <v>97</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="107">
@@ -5058,25 +5085,25 @@
         <v>0.0</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="108">
@@ -5090,25 +5117,25 @@
         <v>1.0</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>344</v>
+        <v>97</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="109">
@@ -5122,25 +5149,25 @@
         <v>1.0</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>347</v>
+        <v>97</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -5160,7 +5187,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B1" s="1">
         <v>0.0</v>
@@ -5170,24 +5197,6 @@
       </c>
       <c r="D1" s="1">
         <v>2.0</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8.0</v>
       </c>
     </row>
     <row r="2">
@@ -5195,7 +5204,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -5203,10 +5212,10 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4">
@@ -5214,10 +5223,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
@@ -5225,13 +5234,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6">
@@ -5239,13 +5248,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/Train/Assets/_Data_Story/Story_DataTable.xlsx
+++ b/Train/Assets/_Data_Story/Story_DataTable.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="359">
   <si>
     <t>Stage_Index</t>
   </si>
@@ -45,6 +45,9 @@
     <t>マリーゴールドの基地</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>정거장</t>
   </si>
   <si>
@@ -96,10 +99,16 @@
     <t>Sound</t>
   </si>
   <si>
-    <t>Effect</t>
-  </si>
-  <si>
     <t>Sprite</t>
+  </si>
+  <si>
+    <t>Player_Animation</t>
+  </si>
+  <si>
+    <t>ChatBox_Animation</t>
+  </si>
+  <si>
+    <t>Etc</t>
   </si>
   <si>
     <t>ko_name</t>
@@ -1525,6 +1534,9 @@
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -1537,13 +1549,13 @@
         <v>2.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1557,13 +1569,13 @@
         <v>3.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -1577,13 +1589,13 @@
         <v>4.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -1597,13 +1609,13 @@
         <v>5.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -1617,13 +1629,13 @@
         <v>6.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -1637,13 +1649,13 @@
         <v>7.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -1657,13 +1669,13 @@
         <v>8.0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1683,47 +1695,55 @@
   <cols>
     <col customWidth="1" min="5" max="5" width="11.5"/>
     <col customWidth="1" min="6" max="6" width="10.38"/>
+    <col customWidth="1" min="7" max="7" width="13.63"/>
+    <col customWidth="1" min="8" max="8" width="16.25"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -1737,25 +1757,25 @@
         <v>0.0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="K2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -1769,25 +1789,25 @@
         <v>0.0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="K3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -1801,25 +1821,25 @@
         <v>1.0</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="L4" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="M4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -1833,25 +1853,25 @@
         <v>0.0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="K5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -1865,25 +1885,25 @@
         <v>0.0</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="K6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -1897,25 +1917,25 @@
         <v>0.0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="K7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M7" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -1929,25 +1949,25 @@
         <v>0.0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="K8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M8" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -1961,25 +1981,25 @@
         <v>0.0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="K9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M9" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -1993,25 +2013,25 @@
         <v>0.0</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="K10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M10" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -2025,25 +2045,25 @@
         <v>0.0</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="K11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M11" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -2057,25 +2077,25 @@
         <v>0.0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="K12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M12" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -2089,25 +2109,25 @@
         <v>0.0</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="K13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M13" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -2121,25 +2141,25 @@
         <v>0.0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="K14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M14" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -2153,25 +2173,25 @@
         <v>2.0</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="M15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>80</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -2185,25 +2205,25 @@
         <v>0.0</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -2217,25 +2237,25 @@
         <v>2.0</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -2249,25 +2269,25 @@
         <v>2.0</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19">
@@ -2281,25 +2301,25 @@
         <v>2.0</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20">
@@ -2313,25 +2333,25 @@
         <v>0.0</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="K20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M20" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21">
@@ -2345,25 +2365,25 @@
         <v>1.0</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="K21" s="9" t="s">
         <v>101</v>
       </c>
+      <c r="L21" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="M21" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="22">
@@ -2377,25 +2397,25 @@
         <v>1.0</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>105</v>
+      <c r="O22" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="23">
@@ -2409,25 +2429,25 @@
         <v>0.0</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="K23" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M23" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -2441,25 +2461,25 @@
         <v>0.0</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="K24" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M24" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="25">
@@ -2473,25 +2493,25 @@
         <v>1.0</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="26">
@@ -2505,25 +2525,25 @@
         <v>0.0</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="K26" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M26" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27">
@@ -2537,25 +2557,25 @@
         <v>1.0</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="28">
@@ -2569,25 +2589,25 @@
         <v>0.0</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="K28" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M28" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="29">
@@ -2601,25 +2621,25 @@
         <v>0.0</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="K29" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M29" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="30">
@@ -2633,25 +2653,25 @@
         <v>1.0</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="31">
@@ -2665,25 +2685,25 @@
         <v>0.0</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="K31" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M31" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="32">
@@ -2697,25 +2717,25 @@
         <v>1.0</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="33">
@@ -2729,25 +2749,25 @@
         <v>0.0</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="K33" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M33" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="34">
@@ -2761,25 +2781,25 @@
         <v>1.0</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="35">
@@ -2793,25 +2813,25 @@
         <v>1.0</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="36">
@@ -2825,25 +2845,25 @@
         <v>0.0</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="L36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="K36" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M36" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="37">
@@ -2857,25 +2877,25 @@
         <v>1.0</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="38">
@@ -2889,25 +2909,25 @@
         <v>1.0</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="39">
@@ -2921,25 +2941,25 @@
         <v>1.0</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="40">
@@ -2953,25 +2973,25 @@
         <v>0.0</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="K40" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M40" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="41">
@@ -2985,25 +3005,25 @@
         <v>1.0</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="42">
@@ -3017,25 +3037,25 @@
         <v>0.0</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="K42" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M42" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="43">
@@ -3049,25 +3069,25 @@
         <v>1.0</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="44">
@@ -3081,25 +3101,25 @@
         <v>0.0</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="L44" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="K44" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M44" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="45">
@@ -3113,25 +3133,25 @@
         <v>1.0</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="46">
@@ -3145,25 +3165,25 @@
         <v>1.0</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="47">
@@ -3177,25 +3197,25 @@
         <v>0.0</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="48">
@@ -3209,25 +3229,25 @@
         <v>1.0</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="49">
@@ -3241,25 +3261,25 @@
         <v>1.0</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="50">
@@ -3273,25 +3293,25 @@
         <v>1.0</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="51">
@@ -3305,25 +3325,25 @@
         <v>0.0</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="52">
@@ -3337,25 +3357,25 @@
         <v>1.0</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="53">
@@ -3369,25 +3389,25 @@
         <v>1.0</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="54">
@@ -3401,25 +3421,25 @@
         <v>1.0</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="55">
@@ -3433,25 +3453,25 @@
         <v>1.0</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="56">
@@ -3465,25 +3485,25 @@
         <v>0.0</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="L56" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="57">
@@ -3497,25 +3517,25 @@
         <v>1.0</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="58">
@@ -3529,25 +3549,25 @@
         <v>0.0</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="L58" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="59">
@@ -3561,25 +3581,25 @@
         <v>0.0</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="L59" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="60">
@@ -3593,25 +3613,25 @@
         <v>0.0</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="L60" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="61">
@@ -3625,25 +3645,25 @@
         <v>1.0</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K61" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M61" s="13" t="s">
-        <v>216</v>
+        <v>218</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O61" s="13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="62">
@@ -3657,25 +3677,25 @@
         <v>1.0</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K62" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M62" s="13" t="s">
-        <v>219</v>
+        <v>221</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O62" s="13" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="63">
@@ -3689,13 +3709,13 @@
         <v>2.0</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="64">
@@ -3709,25 +3729,25 @@
         <v>1.0</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K64" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>222</v>
+        <v>79</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M64" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="65">
@@ -3741,25 +3761,25 @@
         <v>1.0</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K65" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>225</v>
+        <v>79</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M65" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="66">
@@ -3773,25 +3793,25 @@
         <v>0.0</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K66" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="L66" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>228</v>
+        <v>38</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M66" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="67">
@@ -3805,25 +3825,25 @@
         <v>0.0</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>39</v>
+        <v>232</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="68">
@@ -3837,25 +3857,25 @@
         <v>0.0</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="L68" s="6" t="s">
-        <v>39</v>
+        <v>235</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="69">
@@ -3869,25 +3889,25 @@
         <v>0.0</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>39</v>
+        <v>238</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="70">
@@ -3901,25 +3921,25 @@
         <v>0.0</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L70" s="6" t="s">
-        <v>39</v>
+        <v>74</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="71">
@@ -3933,25 +3953,25 @@
         <v>0.0</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="L71" s="6" t="s">
-        <v>39</v>
+        <v>241</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="72">
@@ -3965,25 +3985,25 @@
         <v>1.0</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>101</v>
+        <v>244</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="73">
@@ -3997,25 +4017,25 @@
         <v>0.0</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="L73" s="6" t="s">
-        <v>39</v>
+        <v>247</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="74">
@@ -4029,25 +4049,25 @@
         <v>1.0</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>101</v>
+        <v>250</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="75">
@@ -4061,25 +4081,25 @@
         <v>0.0</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="L75" s="6" t="s">
-        <v>39</v>
+        <v>253</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="76">
@@ -4093,25 +4113,25 @@
         <v>1.0</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="J76" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>101</v>
+        <v>256</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="77">
@@ -4125,25 +4145,25 @@
         <v>0.0</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="L77" s="6" t="s">
-        <v>39</v>
+        <v>259</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="78">
@@ -4157,25 +4177,25 @@
         <v>1.0</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>101</v>
+        <v>262</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="79">
@@ -4189,25 +4209,25 @@
         <v>0.0</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="L79" s="6" t="s">
-        <v>39</v>
+        <v>265</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="80">
@@ -4221,25 +4241,25 @@
         <v>0.0</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="L80" s="6" t="s">
-        <v>39</v>
+        <v>268</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="81">
@@ -4253,25 +4273,25 @@
         <v>1.0</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>101</v>
+        <v>271</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="82">
@@ -4285,25 +4305,25 @@
         <v>0.0</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="L82" s="6" t="s">
-        <v>39</v>
+        <v>274</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="83">
@@ -4317,25 +4337,25 @@
         <v>1.0</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>101</v>
+        <v>277</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="84">
@@ -4349,25 +4369,25 @@
         <v>1.0</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>101</v>
+        <v>280</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="85">
@@ -4381,25 +4401,25 @@
         <v>0.0</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="L85" s="6" t="s">
-        <v>39</v>
+        <v>283</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="86">
@@ -4413,25 +4433,25 @@
         <v>1.0</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>101</v>
+        <v>286</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="87">
@@ -4445,25 +4465,25 @@
         <v>1.0</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>101</v>
+        <v>289</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="88">
@@ -4477,25 +4497,25 @@
         <v>0.0</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="L88" s="6" t="s">
-        <v>39</v>
+        <v>292</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="89">
@@ -4509,25 +4529,25 @@
         <v>1.0</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>101</v>
+        <v>295</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="90">
@@ -4541,25 +4561,25 @@
         <v>1.0</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>101</v>
+        <v>298</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="91">
@@ -4573,25 +4593,25 @@
         <v>0.0</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="L91" s="6" t="s">
-        <v>39</v>
+        <v>301</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="92">
@@ -4605,25 +4625,25 @@
         <v>1.0</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>101</v>
+        <v>304</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="93">
@@ -4637,25 +4657,25 @@
         <v>0.0</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="L93" s="6" t="s">
-        <v>39</v>
+        <v>307</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="94">
@@ -4669,25 +4689,25 @@
         <v>0.0</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="L94" s="6" t="s">
-        <v>39</v>
+        <v>310</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="95">
@@ -4701,25 +4721,25 @@
         <v>1.0</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>101</v>
+        <v>313</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="96">
@@ -4733,25 +4753,25 @@
         <v>0.0</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="L96" s="6" t="s">
-        <v>39</v>
+        <v>316</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="N96" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="97">
@@ -4765,25 +4785,25 @@
         <v>1.0</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>101</v>
+        <v>319</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="98">
@@ -4797,25 +4817,25 @@
         <v>0.0</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="L98" s="6" t="s">
-        <v>39</v>
+        <v>322</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="99">
@@ -4829,25 +4849,25 @@
         <v>1.0</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>101</v>
+        <v>325</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="100">
@@ -4861,25 +4881,25 @@
         <v>1.0</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>101</v>
+        <v>328</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="101">
@@ -4893,25 +4913,25 @@
         <v>1.0</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>101</v>
+        <v>331</v>
+      </c>
+      <c r="L101" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="102">
@@ -4925,25 +4945,25 @@
         <v>0.0</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="J102" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="L102" s="6" t="s">
-        <v>39</v>
+        <v>334</v>
+      </c>
+      <c r="L102" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="103">
@@ -4957,25 +4977,25 @@
         <v>1.0</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>101</v>
+        <v>337</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="104">
@@ -4989,25 +5009,25 @@
         <v>0.0</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="L104" s="6" t="s">
-        <v>39</v>
+        <v>340</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="105">
@@ -5021,25 +5041,25 @@
         <v>0.0</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="J105" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="L105" s="6" t="s">
-        <v>39</v>
+        <v>343</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="106">
@@ -5053,25 +5073,25 @@
         <v>1.0</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>101</v>
+        <v>346</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="107">
@@ -5085,25 +5105,25 @@
         <v>0.0</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>39</v>
+        <v>74</v>
+      </c>
+      <c r="L107" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="108">
@@ -5117,25 +5137,25 @@
         <v>1.0</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>101</v>
+        <v>349</v>
+      </c>
+      <c r="L108" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="109">
@@ -5149,25 +5169,25 @@
         <v>1.0</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="J109" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>101</v>
+        <v>352</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5187,7 +5207,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B1" s="1">
         <v>0.0</v>
@@ -5204,7 +5224,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
@@ -5212,10 +5232,10 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4">
@@ -5223,10 +5243,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -5234,13 +5254,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6">
@@ -5248,13 +5268,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/Train/Assets/_Data_Story/Story_DataTable.xlsx
+++ b/Train/Assets/_Data_Story/Story_DataTable.xlsx
@@ -39,7 +39,7 @@
     <t>Test</t>
   </si>
   <si>
-    <t>Demo_Tutorial</t>
+    <t>GamePlay_Tutorial</t>
   </si>
   <si>
     <t>메리골드의 거점</t>
@@ -81,7 +81,7 @@
     <t>汽車</t>
   </si>
   <si>
-    <t>멈춘 기차</t>
+    <t>정지된 기차</t>
   </si>
   <si>
     <t>Stopped Train</t>
@@ -1244,13 +1244,13 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1568,7 +1568,7 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1591,13 +1591,13 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1614,7 +1614,7 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1637,7 +1637,7 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1660,7 +1660,7 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1683,7 +1683,7 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1706,7 +1706,7 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="1" t="s">

--- a/Train/Assets/_Data_Story/Story_DataTable.xlsx
+++ b/Train/Assets/_Data_Story/Story_DataTable.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="363">
   <si>
     <t>Story_Num</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>停止した汽車</t>
-  </si>
-  <si>
-    <t>Demo_End</t>
   </si>
   <si>
     <t>Stage_Num</t>
@@ -714,6 +711,15 @@
     <t>さてと...大体の瓦礫も片付けたし...マリーゴールド！</t>
   </si>
   <si>
+    <t>(대답이 없다)</t>
+  </si>
+  <si>
+    <t>(no answer)</t>
+  </si>
+  <si>
+    <t>（答えがない）</t>
+  </si>
+  <si>
     <t>안 보이네... 어디 갔지?</t>
   </si>
   <si>
@@ -1117,9 +1123,6 @@
   </si>
   <si>
     <t>페요테 그림자</t>
-  </si>
-  <si>
-    <t>빈 칸</t>
   </si>
 </sst>
 </file>
@@ -1655,7 +1658,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
@@ -1706,8 +1709,8 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -1742,49 +1745,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -1798,25 +1801,25 @@
         <v>0.0</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="L2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -1830,25 +1833,25 @@
         <v>0.0</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="K3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -1862,25 +1865,25 @@
         <v>1.0</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1894,25 +1897,25 @@
         <v>0.0</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="K5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -1926,25 +1929,25 @@
         <v>0.0</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="K6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -1958,25 +1961,25 @@
         <v>0.0</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="K7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -1990,25 +1993,25 @@
         <v>0.0</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="K8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -2022,25 +2025,25 @@
         <v>0.0</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="K9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -2054,25 +2057,25 @@
         <v>0.0</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="K10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -2086,25 +2089,25 @@
         <v>0.0</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="K11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -2118,25 +2121,25 @@
         <v>0.0</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="K12" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
@@ -2150,25 +2153,25 @@
         <v>0.0</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="K13" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -2182,25 +2185,25 @@
         <v>0.0</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="K14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15">
@@ -2214,25 +2217,25 @@
         <v>2.0</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="K15" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="L15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -2246,25 +2249,25 @@
         <v>0.0</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="L16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -2278,25 +2281,25 @@
         <v>2.0</v>
       </c>
       <c r="D17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="K17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L17" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18">
@@ -2310,25 +2313,25 @@
         <v>2.0</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J18" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="K18" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L18" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="19">
@@ -2342,25 +2345,25 @@
         <v>2.0</v>
       </c>
       <c r="D19" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="K19" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L19" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20">
@@ -2374,25 +2377,25 @@
         <v>0.0</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="K20" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -2406,25 +2409,25 @@
         <v>1.0</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="L21" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="M21" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="22">
@@ -2438,25 +2441,25 @@
         <v>1.0</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K22" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L22" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="23">
@@ -2470,25 +2473,25 @@
         <v>0.0</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="K23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="24">
@@ -2502,25 +2505,25 @@
         <v>0.0</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J24" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="K24" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="25">
@@ -2534,25 +2537,25 @@
         <v>1.0</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K25" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26">
@@ -2566,25 +2569,25 @@
         <v>0.0</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="K26" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="27">
@@ -2598,25 +2601,25 @@
         <v>1.0</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K27" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L27" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="28">
@@ -2630,25 +2633,25 @@
         <v>0.0</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="K28" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L28" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="29">
@@ -2662,25 +2665,25 @@
         <v>0.0</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J29" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="K29" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L29" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="30">
@@ -2694,25 +2697,25 @@
         <v>1.0</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K30" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="L30" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="31">
@@ -2726,25 +2729,25 @@
         <v>0.0</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J31" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="K31" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="32">
@@ -2758,25 +2761,25 @@
         <v>1.0</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K32" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L32" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="33">
@@ -2790,25 +2793,25 @@
         <v>0.0</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="K33" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L33" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="34">
@@ -2822,25 +2825,25 @@
         <v>1.0</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
@@ -2854,25 +2857,25 @@
         <v>1.0</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K35" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O35" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="36">
@@ -2886,25 +2889,25 @@
         <v>0.0</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J36" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="K36" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L36" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M36" s="1" t="s">
+      <c r="N36" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O36" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="37">
@@ -2918,25 +2921,25 @@
         <v>1.0</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
@@ -2950,25 +2953,25 @@
         <v>1.0</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K38" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="L38" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="39">
@@ -2982,25 +2985,25 @@
         <v>1.0</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K39" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L39" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M39" s="1" t="s">
+      <c r="N39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="40">
@@ -3014,25 +3017,25 @@
         <v>0.0</v>
       </c>
       <c r="D40" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J40" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J40" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="K40" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L40" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M40" s="1" t="s">
+      <c r="N40" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="41">
@@ -3046,25 +3049,25 @@
         <v>1.0</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K41" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="L41" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M41" s="1" t="s">
+      <c r="N41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="42">
@@ -3078,25 +3081,25 @@
         <v>0.0</v>
       </c>
       <c r="D42" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J42" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J42" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="K42" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L42" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M42" s="1" t="s">
+      <c r="N42" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O42" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="43">
@@ -3110,25 +3113,25 @@
         <v>1.0</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K43" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="L43" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="44">
@@ -3142,25 +3145,25 @@
         <v>0.0</v>
       </c>
       <c r="D44" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J44" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="K44" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L44" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M44" s="1" t="s">
+      <c r="N44" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="45">
@@ -3174,25 +3177,25 @@
         <v>1.0</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K45" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="L45" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="46">
@@ -3206,25 +3209,25 @@
         <v>1.0</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K46" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L46" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M46" s="1" t="s">
+      <c r="N46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O46" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="47">
@@ -3238,25 +3241,25 @@
         <v>0.0</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K47" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="L47" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M47" s="1" t="s">
+      <c r="N47" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="48">
@@ -3270,25 +3273,25 @@
         <v>1.0</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K48" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="L48" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M48" s="1" t="s">
+      <c r="N48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O48" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="49">
@@ -3302,25 +3305,25 @@
         <v>1.0</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K49" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M49" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L49" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M49" s="1" t="s">
+      <c r="N49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="50">
@@ -3334,25 +3337,25 @@
         <v>1.0</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K50" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M50" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="L50" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M50" s="1" t="s">
+      <c r="N50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="51">
@@ -3366,25 +3369,25 @@
         <v>0.0</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K51" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M51" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="L51" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M51" s="1" t="s">
+      <c r="N51" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O51" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="N51" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="52">
@@ -3398,25 +3401,25 @@
         <v>1.0</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K52" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M52" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="L52" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M52" s="1" t="s">
+      <c r="N52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O52" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="53">
@@ -3430,25 +3433,25 @@
         <v>1.0</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K53" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M53" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="L53" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M53" s="1" t="s">
+      <c r="N53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O53" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="54">
@@ -3462,25 +3465,25 @@
         <v>1.0</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K54" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L54" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M54" s="1" t="s">
+      <c r="N54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O54" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="55">
@@ -3494,25 +3497,25 @@
         <v>1.0</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K55" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M55" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="L55" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M55" s="1" t="s">
+      <c r="N55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O55" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="56">
@@ -3526,25 +3529,25 @@
         <v>0.0</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K56" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M56" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L56" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M56" s="1" t="s">
+      <c r="N56" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O56" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="N56" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="57">
@@ -3558,25 +3561,25 @@
         <v>1.0</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K57" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M57" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="L57" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M57" s="1" t="s">
+      <c r="N57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O57" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="58">
@@ -3590,25 +3593,25 @@
         <v>0.0</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K58" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M58" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L58" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M58" s="1" t="s">
+      <c r="N58" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O58" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="N58" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="59">
@@ -3622,25 +3625,25 @@
         <v>0.0</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K59" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M59" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L59" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M59" s="1" t="s">
+      <c r="N59" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O59" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="60">
@@ -3654,25 +3657,25 @@
         <v>0.0</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K60" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M60" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L60" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M60" s="1" t="s">
+      <c r="N60" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O60" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="N60" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="61">
@@ -3686,25 +3689,25 @@
         <v>1.0</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K61" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M61" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L61" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M61" s="15" t="s">
+      <c r="N61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O61" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O61" s="15" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="62">
@@ -3718,25 +3721,25 @@
         <v>1.0</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K62" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M62" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="L62" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M62" s="15" t="s">
+      <c r="N62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O62" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O62" s="15" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="63">
@@ -3750,13 +3753,25 @@
         <v>2.0</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="64">
@@ -3770,25 +3785,25 @@
         <v>1.0</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M64" s="15" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65">
@@ -3802,25 +3817,25 @@
         <v>1.0</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M65" s="15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66">
@@ -3834,25 +3849,25 @@
         <v>0.0</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M66" s="15" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67">
@@ -3866,25 +3881,25 @@
         <v>0.0</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68">
@@ -3898,25 +3913,25 @@
         <v>0.0</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69">
@@ -3930,25 +3945,25 @@
         <v>0.0</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70">
@@ -3962,25 +3977,25 @@
         <v>0.0</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71">
@@ -3994,25 +4009,25 @@
         <v>0.0</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72">
@@ -4026,25 +4041,25 @@
         <v>1.0</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73">
@@ -4058,25 +4073,25 @@
         <v>0.0</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74">
@@ -4090,25 +4105,25 @@
         <v>1.0</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75">
@@ -4122,25 +4137,25 @@
         <v>0.0</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="76">
@@ -4154,25 +4169,25 @@
         <v>1.0</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77">
@@ -4186,25 +4201,25 @@
         <v>0.0</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="78">
@@ -4218,25 +4233,25 @@
         <v>1.0</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="79">
@@ -4250,25 +4265,25 @@
         <v>0.0</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80">
@@ -4282,25 +4297,25 @@
         <v>0.0</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81">
@@ -4314,25 +4329,25 @@
         <v>1.0</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82">
@@ -4346,25 +4361,25 @@
         <v>0.0</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="83">
@@ -4378,25 +4393,25 @@
         <v>1.0</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="84">
@@ -4410,25 +4425,25 @@
         <v>1.0</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85">
@@ -4442,25 +4457,25 @@
         <v>0.0</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86">
@@ -4474,25 +4489,25 @@
         <v>1.0</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="87">
@@ -4506,25 +4521,25 @@
         <v>1.0</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="88">
@@ -4538,25 +4553,25 @@
         <v>0.0</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="89">
@@ -4570,25 +4585,25 @@
         <v>1.0</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="90">
@@ -4602,25 +4617,25 @@
         <v>1.0</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="91">
@@ -4634,25 +4649,25 @@
         <v>0.0</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="92">
@@ -4666,25 +4681,25 @@
         <v>1.0</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="93">
@@ -4698,25 +4713,25 @@
         <v>0.0</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="94">
@@ -4730,25 +4745,25 @@
         <v>0.0</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N94" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95">
@@ -4762,25 +4777,25 @@
         <v>1.0</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="96">
@@ -4794,25 +4809,25 @@
         <v>0.0</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N96" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="97">
@@ -4826,25 +4841,25 @@
         <v>1.0</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="98">
@@ -4858,25 +4873,25 @@
         <v>0.0</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N98" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="99">
@@ -4890,25 +4905,25 @@
         <v>1.0</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="100">
@@ -4922,25 +4937,25 @@
         <v>1.0</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="101">
@@ -4954,25 +4969,25 @@
         <v>1.0</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="102">
@@ -4986,25 +5001,25 @@
         <v>0.0</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="N102" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103">
@@ -5018,25 +5033,25 @@
         <v>1.0</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="104">
@@ -5050,25 +5065,25 @@
         <v>0.0</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N104" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="105">
@@ -5082,25 +5097,25 @@
         <v>0.0</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="N105" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106">
@@ -5114,25 +5129,25 @@
         <v>1.0</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="107">
@@ -5146,25 +5161,25 @@
         <v>0.0</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108">
@@ -5178,25 +5193,25 @@
         <v>1.0</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="109">
@@ -5210,25 +5225,25 @@
         <v>1.0</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -5248,7 +5263,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B1" s="1">
         <v>0.0</v>
@@ -5265,7 +5280,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -5273,10 +5288,10 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4">
@@ -5284,10 +5299,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5">
@@ -5295,27 +5310,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/Train/Assets/_Data_Story/Story_DataTable.xlsx
+++ b/Train/Assets/_Data_Story/Story_DataTable.xlsx
@@ -1618,7 +1618,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
@@ -3750,7 +3750,7 @@
         <v>2.0</v>
       </c>
       <c r="C63" s="14">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>40</v>

--- a/Train/Assets/_Data_Story/Story_DataTable.xlsx
+++ b/Train/Assets/_Data_Story/Story_DataTable.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="387">
   <si>
     <t>Story_Num</t>
   </si>
@@ -36,12 +36,30 @@
     <t>Story_Title_Jp</t>
   </si>
   <si>
+    <t>Story_Sub_Kr</t>
+  </si>
+  <si>
+    <t>Story_Sub_En</t>
+  </si>
+  <si>
+    <t>Story_Sub_Jp</t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
     <t>GamePlay_Tutorial</t>
   </si>
   <si>
+    <t>의뢰</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">依頼 </t>
+  </si>
+  <si>
     <t>메리골드의 거점</t>
   </si>
   <si>
@@ -54,6 +72,15 @@
     <t>InGame</t>
   </si>
   <si>
+    <t>의문</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">疑問 </t>
+  </si>
+  <si>
     <t>정거장</t>
   </si>
   <si>
@@ -63,6 +90,15 @@
     <t>駅</t>
   </si>
   <si>
+    <t>페요테의 만남</t>
+  </si>
+  <si>
+    <t>Encounter with Peyote</t>
+  </si>
+  <si>
+    <t>ペヨーテとの出会い</t>
+  </si>
+  <si>
     <t>철길</t>
   </si>
   <si>
@@ -72,6 +108,15 @@
     <t>鉄道</t>
   </si>
   <si>
+    <t>페요테의 의문</t>
+  </si>
+  <si>
+    <t>Peyote's Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ペヨーテの疑問 </t>
+  </si>
+  <si>
     <t>기차</t>
   </si>
   <si>
@@ -81,6 +126,24 @@
     <t>汽車</t>
   </si>
   <si>
+    <t>습격</t>
+  </si>
+  <si>
+    <t>Ambush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">襲撃 </t>
+  </si>
+  <si>
+    <t>지원 요청</t>
+  </si>
+  <si>
+    <t>Request for Support</t>
+  </si>
+  <si>
+    <t>支援要請</t>
+  </si>
+  <si>
     <t>정지된 기차</t>
   </si>
   <si>
@@ -90,6 +153,24 @@
     <t>停止した汽車</t>
   </si>
   <si>
+    <t>나타난 거미</t>
+  </si>
+  <si>
+    <t>Emergence of the Spider</t>
+  </si>
+  <si>
+    <t>現れたクモ</t>
+  </si>
+  <si>
+    <t>여왕 거미 처치</t>
+  </si>
+  <si>
+    <t>Defeating the Spider Queen</t>
+  </si>
+  <si>
+    <t>女王クモの討伐</t>
+  </si>
+  <si>
     <t>Stage_Num</t>
   </si>
   <si>
@@ -225,13 +306,13 @@
     <t>こういうことが全くないわけではないけど、しつこく追いかけてくるな...こちらの方が近いけど...</t>
   </si>
   <si>
-    <t>으음.........</t>
-  </si>
-  <si>
-    <t>Hmm...</t>
-  </si>
-  <si>
-    <t>うーん...</t>
+    <t>으음......</t>
+  </si>
+  <si>
+    <t>Hmm......</t>
+  </si>
+  <si>
+    <t>うーん......</t>
   </si>
   <si>
     <t>별일 아니겠지. 나중에 생각하고 우선 물자를 보충하자.</t>
@@ -709,15 +790,6 @@
   </si>
   <si>
     <t>さてと...大体の瓦礫も片付けたし...マリーゴールド！</t>
-  </si>
-  <si>
-    <t>(대답이 없다)</t>
-  </si>
-  <si>
-    <t>(no answer)</t>
-  </si>
-  <si>
-    <t>（答えがない）</t>
   </si>
   <si>
     <t>안 보이네... 어디 갔지?</t>
@@ -1537,6 +1609,15 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -1546,19 +1627,28 @@
         <v>1.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -1569,19 +1659,28 @@
         <v>0.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -1592,19 +1691,28 @@
         <v>3.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -1615,19 +1723,28 @@
         <v>2.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -1638,19 +1755,28 @@
         <v>2.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -1661,19 +1787,28 @@
         <v>2.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -1684,19 +1819,28 @@
         <v>2.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -1707,19 +1851,28 @@
         <v>2.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1745,49 +1898,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
@@ -1801,25 +1954,25 @@
         <v>0.0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -1833,25 +1986,25 @@
         <v>0.0</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -1865,25 +2018,25 @@
         <v>1.0</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -1897,25 +2050,25 @@
         <v>0.0</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -1929,25 +2082,25 @@
         <v>0.0</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -1961,25 +2114,25 @@
         <v>0.0</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1993,25 +2146,25 @@
         <v>0.0</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -2025,25 +2178,25 @@
         <v>0.0</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -2057,25 +2210,25 @@
         <v>0.0</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K10" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="M10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="O10" s="1" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
@@ -2089,25 +2242,25 @@
         <v>0.0</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
@@ -2121,25 +2274,25 @@
         <v>0.0</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
@@ -2153,25 +2306,25 @@
         <v>0.0</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
@@ -2185,25 +2338,25 @@
         <v>0.0</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
@@ -2217,25 +2370,25 @@
         <v>2.0</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
@@ -2249,25 +2402,25 @@
         <v>0.0</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17">
@@ -2281,25 +2434,25 @@
         <v>2.0</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18">
@@ -2313,25 +2466,25 @@
         <v>2.0</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
@@ -2345,25 +2498,25 @@
         <v>2.0</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20">
@@ -2377,25 +2530,25 @@
         <v>0.0</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21">
@@ -2409,25 +2562,25 @@
         <v>1.0</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22">
@@ -2441,25 +2594,25 @@
         <v>1.0</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23">
@@ -2473,25 +2626,25 @@
         <v>0.0</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24">
@@ -2505,25 +2658,25 @@
         <v>0.0</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25">
@@ -2537,25 +2690,25 @@
         <v>1.0</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26">
@@ -2569,25 +2722,25 @@
         <v>0.0</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27">
@@ -2601,25 +2754,25 @@
         <v>1.0</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28">
@@ -2633,25 +2786,25 @@
         <v>0.0</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29">
@@ -2665,25 +2818,25 @@
         <v>0.0</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30">
@@ -2697,25 +2850,25 @@
         <v>1.0</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="O30" s="1" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31">
@@ -2729,25 +2882,25 @@
         <v>0.0</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32">
@@ -2761,25 +2914,25 @@
         <v>1.0</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33">
@@ -2793,25 +2946,25 @@
         <v>0.0</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34">
@@ -2825,25 +2978,25 @@
         <v>1.0</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35">
@@ -2857,25 +3010,25 @@
         <v>1.0</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36">
@@ -2889,25 +3042,25 @@
         <v>0.0</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37">
@@ -2921,25 +3074,25 @@
         <v>1.0</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38">
@@ -2953,25 +3106,25 @@
         <v>1.0</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39">
@@ -2985,25 +3138,25 @@
         <v>1.0</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40">
@@ -3017,25 +3170,25 @@
         <v>0.0</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41">
@@ -3049,25 +3202,25 @@
         <v>1.0</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42">
@@ -3081,25 +3234,25 @@
         <v>0.0</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43">
@@ -3113,25 +3266,25 @@
         <v>1.0</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44">
@@ -3145,25 +3298,25 @@
         <v>0.0</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45">
@@ -3177,25 +3330,25 @@
         <v>1.0</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46">
@@ -3209,25 +3362,25 @@
         <v>1.0</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47">
@@ -3241,25 +3394,25 @@
         <v>0.0</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48">
@@ -3273,25 +3426,25 @@
         <v>1.0</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49">
@@ -3305,25 +3458,25 @@
         <v>1.0</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50">
@@ -3337,25 +3490,25 @@
         <v>1.0</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51">
@@ -3369,25 +3522,25 @@
         <v>0.0</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52">
@@ -3401,25 +3554,25 @@
         <v>1.0</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53">
@@ -3433,25 +3586,25 @@
         <v>1.0</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54">
@@ -3465,25 +3618,25 @@
         <v>1.0</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55">
@@ -3497,25 +3650,25 @@
         <v>1.0</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56">
@@ -3529,25 +3682,25 @@
         <v>0.0</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57">
@@ -3561,25 +3714,25 @@
         <v>1.0</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58">
@@ -3593,25 +3746,25 @@
         <v>0.0</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59">
@@ -3625,25 +3778,25 @@
         <v>0.0</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60">
@@ -3657,25 +3810,25 @@
         <v>0.0</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61">
@@ -3689,25 +3842,25 @@
         <v>1.0</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M61" s="15" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O61" s="15" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62">
@@ -3721,25 +3874,25 @@
         <v>1.0</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M62" s="15" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O62" s="15" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63">
@@ -3753,25 +3906,25 @@
         <v>0.0</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>225</v>
+        <v>103</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>226</v>
+        <v>103</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>227</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64">
@@ -3785,25 +3938,25 @@
         <v>1.0</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M64" s="15" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65">
@@ -3817,25 +3970,25 @@
         <v>1.0</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M65" s="15" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66">
@@ -3849,25 +4002,25 @@
         <v>0.0</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M66" s="15" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67">
@@ -3881,25 +4034,25 @@
         <v>0.0</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68">
@@ -3913,25 +4066,25 @@
         <v>0.0</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69">
@@ -3945,25 +4098,25 @@
         <v>0.0</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70">
@@ -3977,25 +4130,25 @@
         <v>0.0</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71">
@@ -4009,25 +4162,25 @@
         <v>0.0</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72">
@@ -4041,25 +4194,25 @@
         <v>1.0</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73">
@@ -4073,25 +4226,25 @@
         <v>0.0</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74">
@@ -4105,25 +4258,25 @@
         <v>1.0</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
     </row>
     <row r="75">
@@ -4137,25 +4290,25 @@
         <v>0.0</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76">
@@ -4169,25 +4322,25 @@
         <v>1.0</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77">
@@ -4201,25 +4354,25 @@
         <v>0.0</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78">
@@ -4233,25 +4386,25 @@
         <v>1.0</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79">
@@ -4265,25 +4418,25 @@
         <v>0.0</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
     </row>
     <row r="80">
@@ -4297,25 +4450,25 @@
         <v>0.0</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
     </row>
     <row r="81">
@@ -4329,25 +4482,25 @@
         <v>1.0</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
     </row>
     <row r="82">
@@ -4361,25 +4514,25 @@
         <v>0.0</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
     </row>
     <row r="83">
@@ -4393,25 +4546,25 @@
         <v>1.0</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84">
@@ -4425,25 +4578,25 @@
         <v>1.0</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
     </row>
     <row r="85">
@@ -4457,25 +4610,25 @@
         <v>0.0</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
     </row>
     <row r="86">
@@ -4489,25 +4642,25 @@
         <v>1.0</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
     </row>
     <row r="87">
@@ -4521,25 +4674,25 @@
         <v>1.0</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88">
@@ -4553,25 +4706,25 @@
         <v>0.0</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
     </row>
     <row r="89">
@@ -4585,25 +4738,25 @@
         <v>1.0</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90">
@@ -4617,25 +4770,25 @@
         <v>1.0</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
     </row>
     <row r="91">
@@ -4649,25 +4802,25 @@
         <v>0.0</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
     </row>
     <row r="92">
@@ -4681,25 +4834,25 @@
         <v>1.0</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
     </row>
     <row r="93">
@@ -4713,25 +4866,25 @@
         <v>0.0</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
     </row>
     <row r="94">
@@ -4745,25 +4898,25 @@
         <v>0.0</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="N94" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
     </row>
     <row r="95">
@@ -4777,25 +4930,25 @@
         <v>1.0</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="96">
@@ -4809,25 +4962,25 @@
         <v>0.0</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="N96" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
     </row>
     <row r="97">
@@ -4841,25 +4994,25 @@
         <v>1.0</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
     </row>
     <row r="98">
@@ -4873,25 +5026,25 @@
         <v>0.0</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="N98" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
     </row>
     <row r="99">
@@ -4905,25 +5058,25 @@
         <v>1.0</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
     </row>
     <row r="100">
@@ -4937,25 +5090,25 @@
         <v>1.0</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
     </row>
     <row r="101">
@@ -4969,25 +5122,25 @@
         <v>1.0</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
     </row>
     <row r="102">
@@ -5001,25 +5154,25 @@
         <v>0.0</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="N102" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
     </row>
     <row r="103">
@@ -5033,25 +5186,25 @@
         <v>1.0</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
     </row>
     <row r="104">
@@ -5065,25 +5218,25 @@
         <v>0.0</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="N104" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
     </row>
     <row r="105">
@@ -5097,25 +5250,25 @@
         <v>0.0</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="N105" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106">
@@ -5129,25 +5282,25 @@
         <v>1.0</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
     </row>
     <row r="107">
@@ -5161,25 +5314,25 @@
         <v>0.0</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108">
@@ -5193,25 +5346,25 @@
         <v>1.0</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
     </row>
     <row r="109">
@@ -5225,25 +5378,25 @@
         <v>1.0</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -5263,7 +5416,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="B1" s="1">
         <v>0.0</v>
@@ -5280,7 +5433,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3">
@@ -5288,10 +5441,10 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4">
@@ -5299,10 +5452,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5">
@@ -5310,13 +5463,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/Train/Assets/_Data_Story/Story_DataTable.xlsx
+++ b/Train/Assets/_Data_Story/Story_DataTable.xlsx
@@ -5,7 +5,8 @@
   <sheets>
     <sheet state="visible" name="Story_Branch" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Story" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Branch_Information" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Special_Story" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Branch_Information" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="396">
   <si>
     <t>Story_Num</t>
   </si>
@@ -1186,6 +1187,33 @@
   </si>
   <si>
     <t>...マリーゴールド？！</t>
+  </si>
+  <si>
+    <t>앗!</t>
+  </si>
+  <si>
+    <t>Oh!</t>
+  </si>
+  <si>
+    <t>あっ！</t>
+  </si>
+  <si>
+    <t>금고가 왜 여기있지?!</t>
+  </si>
+  <si>
+    <t>Why is the safe here?!</t>
+  </si>
+  <si>
+    <t>金庫がなんでここにあるんだ？！</t>
+  </si>
+  <si>
+    <t>무엇이 들어있을까?</t>
+  </si>
+  <si>
+    <t>What's in it?</t>
+  </si>
+  <si>
+    <t>何が入っているかな？</t>
   </si>
   <si>
     <t>Branch</t>
@@ -1377,6 +1405,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1894,6 +1926,7 @@
     <col customWidth="1" min="6" max="6" width="10.38"/>
     <col customWidth="1" min="7" max="7" width="13.63"/>
     <col customWidth="1" min="8" max="8" width="16.25"/>
+    <col customWidth="1" min="11" max="11" width="29.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5413,10 +5446,173 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="11" max="11" width="22.0"/>
+    <col customWidth="1" min="13" max="13" width="21.25"/>
+    <col customWidth="1" min="14" max="14" width="14.5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>384</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="B1" s="1">
         <v>0.0</v>
@@ -5444,7 +5640,7 @@
         <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4">
@@ -5469,7 +5665,7 @@
         <v>129</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>

--- a/Train/Assets/_Data_Story/Story_DataTable.xlsx
+++ b/Train/Assets/_Data_Story/Story_DataTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="406">
   <si>
     <t>Story_Num</t>
   </si>
@@ -1189,6 +1189,9 @@
     <t>...マリーゴールド？！</t>
   </si>
   <si>
+    <t>Specail_Num</t>
+  </si>
+  <si>
     <t>앗!</t>
   </si>
   <si>
@@ -1214,6 +1217,33 @@
   </si>
   <si>
     <t>何が入っているかな？</t>
+  </si>
+  <si>
+    <t>배가 고픈데...?</t>
+  </si>
+  <si>
+    <t>I'm hungry...</t>
+  </si>
+  <si>
+    <t>お腹すいた…</t>
+  </si>
+  <si>
+    <t>어?! 술집이다!!</t>
+  </si>
+  <si>
+    <t>Oh?! A pub!!</t>
+  </si>
+  <si>
+    <t>おっ？！居酒屋だ！！</t>
+  </si>
+  <si>
+    <t>오늘의 메뉴는 뭘까?</t>
+  </si>
+  <si>
+    <t>What's on the menu today?</t>
+  </si>
+  <si>
+    <t>今日のメニューは何かな？</t>
   </si>
   <si>
     <t>Branch</t>
@@ -1925,7 +1955,7 @@
     <col customWidth="1" min="5" max="5" width="11.5"/>
     <col customWidth="1" min="6" max="6" width="10.38"/>
     <col customWidth="1" min="7" max="7" width="13.63"/>
-    <col customWidth="1" min="8" max="8" width="16.25"/>
+    <col customWidth="1" min="8" max="8" width="15.13"/>
     <col customWidth="1" min="11" max="11" width="29.25"/>
   </cols>
   <sheetData>
@@ -5454,7 +5484,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>384</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>53</v>
@@ -5516,19 +5546,19 @@
         <v>68</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>71</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3">
@@ -5548,19 +5578,19 @@
         <v>68</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>70</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>71</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4">
@@ -5580,19 +5610,115 @@
         <v>68</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>70</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>71</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -5612,7 +5738,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B1" s="1">
         <v>0.0</v>
@@ -5640,7 +5766,7 @@
         <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4">
@@ -5665,7 +5791,7 @@
         <v>129</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/Train/Assets/_Data_Story/Story_DataTable.xlsx
+++ b/Train/Assets/_Data_Story/Story_DataTable.xlsx
@@ -277,7 +277,7 @@
     <t>А? Эта книга уже давно просрочена, не так ли?</t>
   </si>
   <si>
-    <t>에전에 잃어버린 카드로 빌린 건가?</t>
+    <t>예전에 잃어버린 카드로 빌린 건가?</t>
   </si>
   <si>
     <t>Did you borrow it with the card you lost before?</t>

--- a/Train/Assets/_Data_Story/Story_DataTable.xlsx
+++ b/Train/Assets/_Data_Story/Story_DataTable.xlsx
@@ -4618,7 +4618,7 @@
     <t>Черри также выглядела немного усталой после прихода в пустыню.</t>
   </si>
   <si>
-    <t>그도 그럴게, 몬스터들과 전투 할 때도 함계하다 보니, 모래먼지에 뒤덮혀 뽀얗던 털들이 황토색으로 변해버렸다.</t>
+    <t>그도 그럴게, 몬스터들과 전투 할 때도 함께하다 보니, 모래먼지에 뒤덮혀 뽀얗던 털들이 황토색으로 변해버렸다.</t>
   </si>
   <si>
     <t>So will he, as he fought with monsters, the hairs covered in sand dust turned ocher-colored.</t>

--- a/Train/Assets/_Data_Story/Story_DataTable.xlsx
+++ b/Train/Assets/_Data_Story/Story_DataTable.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15739" uniqueCount="6814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15740" uniqueCount="6814">
+  <si>
+    <t>Stage_Num</t>
+  </si>
   <si>
     <t>Story_Num</t>
   </si>
@@ -38,9 +41,6 @@
   </si>
   <si>
     <t>Station</t>
-  </si>
-  <si>
-    <t>Stage_Num</t>
   </si>
   <si>
     <t>branch</t>
@@ -20989,61 +20989,76 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>0.0</v>
       </c>
       <c r="B2" s="2">
         <v>0.0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B3" s="1">
         <v>1.0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
+      <c r="C3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B4" s="1">
         <v>2.0</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
+      <c r="C4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1">
         <v>3.0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>2.0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -21051,13 +21066,16 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C6" s="1">
         <v>2.0</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -21065,125 +21083,152 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C7" s="1">
         <v>3.0</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="1">
         <v>6.0</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>2.0</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B9" s="1">
         <v>7.0</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>2.0</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B10" s="1">
         <v>8.0</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>2.0</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B11" s="1">
         <v>9.0</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>2.0</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B12" s="1">
         <v>10.0</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>2.0</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B13" s="1">
         <v>11.0</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>2.0</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B14" s="1">
         <v>12.0</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C14" s="1">
         <v>2.0</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B15" s="1">
         <v>13.0</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C15" s="1">
         <v>2.0</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -21215,10 +21260,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>

--- a/Train/Assets/_Data_Story/Story_DataTable.xlsx
+++ b/Train/Assets/_Data_Story/Story_DataTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15741" uniqueCount="6815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15794" uniqueCount="6840">
   <si>
     <t>Stage_Num</t>
   </si>
@@ -20329,6 +20329,9 @@
     <t>Dic_State</t>
   </si>
   <si>
+    <t>//DicFlag는 사전에서 스토리 전인지 후인지 알려주는 플래그</t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
@@ -20447,6 +20450,78 @@
   </si>
   <si>
     <t>Что сегодня на меню?</t>
+  </si>
+  <si>
+    <t>응? 갑자기 검문소가...?</t>
+  </si>
+  <si>
+    <t>Huh? The checkpoint all of a sudden...?</t>
+  </si>
+  <si>
+    <t>ん？急に検問所が…？</t>
+  </si>
+  <si>
+    <t>嗯？突然有检查站...？</t>
+  </si>
+  <si>
+    <t>嗯？突然有檢查站...？</t>
+  </si>
+  <si>
+    <t>А? Внезапно контрольно-пропускной пункт...?</t>
+  </si>
+  <si>
+    <t>내가 듣기로는 검문소가 세금내야한다던데...</t>
+  </si>
+  <si>
+    <t>I heard that checkpoints have to pay taxes...</t>
+  </si>
+  <si>
+    <t>私が聞いたところでは検問所が税金を払わなければならないそうだが···</t>
+  </si>
+  <si>
+    <t>我听说检查站要交税...</t>
+  </si>
+  <si>
+    <t>我聽說檢查站要交稅...</t>
+  </si>
+  <si>
+    <t>Я слышал, что контрольно-пропускные пункты должны платить налоги...</t>
+  </si>
+  <si>
+    <t>뭣? 내 골드의 10%나 내야해??</t>
+  </si>
+  <si>
+    <t>What? Do I have to pay 10% of my gold??</t>
+  </si>
+  <si>
+    <t>え？私のゴールドの10%も払わないといけないの？？</t>
+  </si>
+  <si>
+    <t>什么？要交我黄金的10%吗？</t>
+  </si>
+  <si>
+    <t>什麼？要交我黃金的10%嗎？</t>
+  </si>
+  <si>
+    <t>Что? Должен ли я заплатить 10% моего золота?</t>
+  </si>
+  <si>
+    <t>도망칠 곳이 없으니 얌전히 내자</t>
+  </si>
+  <si>
+    <t>There's nowhere to run, so let's keep it calm</t>
+  </si>
+  <si>
+    <t>逃げ場がないからおとなしく出そう</t>
+  </si>
+  <si>
+    <t>无处可逃, 老老实实地交吧</t>
+  </si>
+  <si>
+    <t>無處可逃, 老老實實地交吧</t>
+  </si>
+  <si>
+    <t>Некуда бежать, так что давай будем спокойны</t>
   </si>
   <si>
     <t>Branch</t>
@@ -87436,7 +87511,7 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="14.88"/>
     <col customWidth="1" min="4" max="4" width="13.63"/>
-    <col customWidth="1" min="7" max="7" width="27.13"/>
+    <col customWidth="1" min="7" max="7" width="42.25"/>
     <col customWidth="1" min="9" max="9" width="14.0"/>
   </cols>
   <sheetData>
@@ -87459,6 +87534,9 @@
       <c r="F1" s="1" t="s">
         <v>6770</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6771</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -87471,10 +87549,10 @@
         <v>0.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6771</v>
+        <v>6772</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>6772</v>
+        <v>6773</v>
       </c>
       <c r="F2" s="1" t="b">
         <v>0</v>
@@ -87491,10 +87569,10 @@
         <v>1.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6771</v>
+        <v>6772</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>6773</v>
+        <v>6774</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>1</v>
@@ -87511,10 +87589,10 @@
         <v>2.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6771</v>
+        <v>6772</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>6774</v>
+        <v>6775</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
@@ -87531,10 +87609,10 @@
         <v>2.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6771</v>
+        <v>6772</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>6774</v>
+        <v>6775</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
@@ -87551,10 +87629,10 @@
         <v>2.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6771</v>
+        <v>6772</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>6773</v>
+        <v>6774</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>1</v>
@@ -87571,10 +87649,10 @@
         <v>3.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6771</v>
+        <v>6772</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>6774</v>
+        <v>6775</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>0</v>
@@ -87591,10 +87669,10 @@
         <v>2.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6771</v>
+        <v>6772</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>6773</v>
+        <v>6774</v>
       </c>
       <c r="F8" s="1" t="b">
         <v>1</v>
@@ -87611,10 +87689,10 @@
         <v>2.0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6771</v>
+        <v>6772</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>6773</v>
+        <v>6774</v>
       </c>
       <c r="F9" s="1" t="b">
         <v>1</v>
@@ -87631,10 +87709,10 @@
         <v>2.0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6771</v>
+        <v>6772</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>6773</v>
+        <v>6774</v>
       </c>
       <c r="F10" s="1" t="b">
         <v>1</v>
@@ -87651,10 +87729,10 @@
         <v>2.0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6771</v>
+        <v>6772</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>6774</v>
+        <v>6775</v>
       </c>
       <c r="F11" s="1" t="b">
         <v>0</v>
@@ -87671,10 +87749,10 @@
         <v>2.0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>6771</v>
+        <v>6772</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>6773</v>
+        <v>6774</v>
       </c>
       <c r="F12" s="1" t="b">
         <v>1</v>
@@ -87691,10 +87769,10 @@
         <v>2.0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>6771</v>
+        <v>6772</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>6774</v>
+        <v>6775</v>
       </c>
       <c r="F13" s="1" t="b">
         <v>0</v>
@@ -87711,10 +87789,10 @@
         <v>2.0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>6771</v>
+        <v>6772</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6773</v>
+        <v>6774</v>
       </c>
       <c r="F14" s="1" t="b">
         <v>1</v>
@@ -87731,10 +87809,10 @@
         <v>2.0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>6771</v>
+        <v>6772</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6774</v>
+        <v>6775</v>
       </c>
       <c r="F15" s="1" t="b">
         <v>0</v>
@@ -87762,7 +87840,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>6775</v>
+        <v>6776</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -87777,7 +87855,7 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6776</v>
+        <v>6777</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>19</v>
@@ -87842,37 +87920,37 @@
         <v>24</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>6777</v>
+        <v>6778</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>6778</v>
+        <v>6779</v>
       </c>
       <c r="N2" s="40" t="s">
         <v>28</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>6779</v>
+        <v>6780</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>1281</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>6780</v>
+        <v>6781</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>1283</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>6780</v>
+        <v>6781</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>6781</v>
+        <v>6782</v>
       </c>
     </row>
     <row r="3">
@@ -87892,37 +87970,37 @@
         <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>6782</v>
+        <v>6783</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>6783</v>
+        <v>6784</v>
       </c>
       <c r="N3" s="40" t="s">
         <v>28</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>6784</v>
+        <v>6785</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>1281</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>6785</v>
+        <v>6786</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>1283</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>6786</v>
+        <v>6787</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>6787</v>
+        <v>6788</v>
       </c>
     </row>
     <row r="4">
@@ -87942,37 +88020,37 @@
         <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>6788</v>
+        <v>6789</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>6789</v>
+        <v>6790</v>
       </c>
       <c r="N4" s="40" t="s">
         <v>28</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>6790</v>
+        <v>6791</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>1281</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>6791</v>
+        <v>6792</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>1283</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>6792</v>
+        <v>6793</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>6793</v>
+        <v>6794</v>
       </c>
     </row>
     <row r="5">
@@ -87992,37 +88070,37 @@
         <v>24</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>6794</v>
+        <v>6795</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>6795</v>
+        <v>6796</v>
       </c>
       <c r="N5" s="40" t="s">
         <v>28</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>6796</v>
+        <v>6797</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>1281</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>6797</v>
+        <v>6798</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>1283</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>6798</v>
+        <v>6799</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>6799</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="6">
@@ -88042,37 +88120,37 @@
         <v>24</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>6800</v>
+        <v>6801</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>6801</v>
+        <v>6802</v>
       </c>
       <c r="N6" s="40" t="s">
         <v>28</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>6802</v>
+        <v>6803</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>1281</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>6803</v>
+        <v>6804</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>1283</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>6803</v>
+        <v>6804</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>6804</v>
+        <v>6805</v>
       </c>
     </row>
     <row r="7">
@@ -88092,38 +88170,244 @@
         <v>24</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>6805</v>
+        <v>6806</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>6806</v>
+        <v>6807</v>
       </c>
       <c r="N7" s="40" t="s">
         <v>28</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>6807</v>
+        <v>6808</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>1281</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>6808</v>
+        <v>6809</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>1283</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>6809</v>
+        <v>6810</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>6810</v>
-      </c>
+        <v>6811</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>6812</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>6813</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>6814</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>6815</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>6816</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>6817</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>6818</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>6819</v>
+      </c>
+      <c r="N9" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>6820</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>6821</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>6822</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>6823</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>6824</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>6825</v>
+      </c>
+      <c r="N10" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>6826</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>6827</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>6828</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>6829</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>6830</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>6831</v>
+      </c>
+      <c r="N11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>6832</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>6833</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>6834</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>6835</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="L18" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -88142,7 +88426,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>6811</v>
+        <v>6836</v>
       </c>
       <c r="B1" s="1">
         <v>0.0</v>
@@ -88180,7 +88464,7 @@
         <v>531</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>6812</v>
+        <v>6837</v>
       </c>
       <c r="F2" s="43" t="s">
         <v>1087</v>
@@ -88237,10 +88521,10 @@
         <v>3120</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>6813</v>
+        <v>6838</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>6814</v>
+        <v>6839</v>
       </c>
     </row>
   </sheetData>

--- a/Train/Assets/_Data_Story/Story_DataTable.xlsx
+++ b/Train/Assets/_Data_Story/Story_DataTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15794" uniqueCount="6840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16300" uniqueCount="7045">
   <si>
     <t>Stage_Num</t>
   </si>
@@ -20452,76 +20452,691 @@
     <t>Что сегодня на меню?</t>
   </si>
   <si>
+    <t>카지노?</t>
+  </si>
+  <si>
+    <t>Casino?</t>
+  </si>
+  <si>
+    <t>カジノ？</t>
+  </si>
+  <si>
+    <t>赌场？</t>
+  </si>
+  <si>
+    <t>Казино?</t>
+  </si>
+  <si>
+    <t>한번 크게 벌어볼까...?</t>
+  </si>
+  <si>
+    <t>Shall I try to win big...?</t>
+  </si>
+  <si>
+    <t>一度大勝ちしてみようか…？</t>
+  </si>
+  <si>
+    <t>要不要试试大赚一笔…？</t>
+  </si>
+  <si>
+    <t>Попробую сорвать куш…?</t>
+  </si>
+  <si>
+    <t>이런 말이 있지, “잃은 돈은 잊으면 되고, 맞춘 순간은 영원히 남는다.”</t>
+  </si>
+  <si>
+    <t>There's a saying, 'Forget the money you lose, and the moment you win lasts forever.'</t>
+  </si>
+  <si>
+    <t>こんな言葉があるよ、「負けたお金は忘れて、勝った瞬間は永遠に残る。」</t>
+  </si>
+  <si>
+    <t>有句话说：‘输了的钱忘掉，赢的那一刻永远留存。’</t>
+  </si>
+  <si>
+    <t>Есть поговорка: ‘Потерянные деньги забудь, а момент выигрыша останется навсегда.’</t>
+  </si>
+  <si>
+    <t>도박에 빠지지 않도록 주의하자...</t>
+  </si>
+  <si>
+    <t>Let's be careful not to get addicted to gambling...</t>
+  </si>
+  <si>
+    <t>ギャンブルにハマらないように注意しよう…</t>
+  </si>
+  <si>
+    <t>让我们小心不要沉迷赌博…</t>
+  </si>
+  <si>
+    <t>Давайте будем осторожны, чтобы не увлечься азартными играми…</t>
+  </si>
+  <si>
+    <t>아이고, 돈이 될 만한 게 어디 없을까~</t>
+  </si>
+  <si>
+    <t>Oh dear, isn't there anything that can make me money~</t>
+  </si>
+  <si>
+    <t>あーあ、お金になるものはないかな～</t>
+  </si>
+  <si>
+    <t>哎呀，有没有什么能赚钱的东西~</t>
+  </si>
+  <si>
+    <t>Ох, нет ли чего-то, что принесёт денег~</t>
+  </si>
+  <si>
+    <t>쓰레기장? 음, 혹시 몰라 뒤져보면 은근 괜찮은 게 나올지도?</t>
+  </si>
+  <si>
+    <t>Dumpster? Hmm, you never know, digging through it might turn up something decent?</t>
+  </si>
+  <si>
+    <t>ゴミ捨て場？うーん、念のため掘ってみると意外と良い物が見つかるかも？</t>
+  </si>
+  <si>
+    <t>垃圾场？嗯，挖一挖说不定能找到不错的东西？</t>
+  </si>
+  <si>
+    <t>Мусорная свалка? Хм, вдруг, порывшись, найду что-то стоящее?</t>
+  </si>
+  <si>
+    <t>상점에 팔면 판매 가격이라도 나오니 한번 뒤져보자.</t>
+  </si>
+  <si>
+    <t>Since I can at least get a selling price if I sell it at a shop, let's dig through it.</t>
+  </si>
+  <si>
+    <t>店に売れば売値くらいは出るから、掘ってみよう。</t>
+  </si>
+  <si>
+    <t>卖给商店至少能有个卖价，挖一挖吧。</t>
+  </si>
+  <si>
+    <t>Продам в магазине, хоть какую-то цену получу, давай покопаюсь.</t>
+  </si>
+  <si>
+    <t>오아시스?</t>
+  </si>
+  <si>
+    <t>Oasis?</t>
+  </si>
+  <si>
+    <t>オアシス？</t>
+  </si>
+  <si>
+    <t>绿洲？</t>
+  </si>
+  <si>
+    <t>Оазис?</t>
+  </si>
+  <si>
+    <t>오아시스의 샘물을 마시면 행운을 가져다준다는데?</t>
+  </si>
+  <si>
+    <t>They say drinking the oasis spring water brings good luck?</t>
+  </si>
+  <si>
+    <t>オアシスの泉の水を飲むと幸運がもたらされると言われているよ？</t>
+  </si>
+  <si>
+    <t>听说喝了绿洲的泉水能带来好运？</t>
+  </si>
+  <si>
+    <t>Говорят, вода из оазисного источника приносит удачу?</t>
+  </si>
+  <si>
+    <t>한번 마셔볼까?</t>
+  </si>
+  <si>
+    <t>Shall I give it a try?</t>
+  </si>
+  <si>
+    <t>一度飲んでみようか？</t>
+  </si>
+  <si>
+    <t>要不要试着喝一口？</t>
+  </si>
+  <si>
+    <t>Попробую выпить?</t>
+  </si>
+  <si>
+    <t>쉿...!!</t>
+  </si>
+  <si>
+    <t>Shh...!!</t>
+  </si>
+  <si>
+    <t>しー…!!</t>
+  </si>
+  <si>
+    <t>嘘…!!</t>
+  </si>
+  <si>
+    <t>Тшш…!!</t>
+  </si>
+  <si>
+    <t>하필 이 구역은 약탈자 소굴이라니...</t>
+  </si>
+  <si>
+    <t>Of all places, this area is a raider hideout...</t>
+  </si>
+  <si>
+    <t>まさかこのエリアが略奪者のアジトとは…</t>
+  </si>
+  <si>
+    <t>偏偏这个区域是掠夺者巢穴…</t>
+  </si>
+  <si>
+    <t>Как назло, это убежище мародёров…</t>
+  </si>
+  <si>
+    <t>지금 빨리 지나가야 해!!</t>
+  </si>
+  <si>
+    <t>I need to pass through quickly now!!</t>
+  </si>
+  <si>
+    <t>今すぐ速やかに通過しなきゃ!!</t>
+  </si>
+  <si>
+    <t>现在得赶紧通过!!</t>
+  </si>
+  <si>
+    <t>Надо срочно пройти!</t>
+  </si>
+  <si>
+    <t>흐아아암, 졸리다...</t>
+  </si>
+  <si>
+    <t>Yaaawn, I'm sleepy...</t>
+  </si>
+  <si>
+    <t>あ～あ、眠い…</t>
+  </si>
+  <si>
+    <t>哈欠，困了…</t>
+  </si>
+  <si>
+    <t>Зе-е-ев, спать хочется…</t>
+  </si>
+  <si>
+    <t>오... 졸음 쉼터다...</t>
+  </si>
+  <si>
+    <t>Oh... it's a drowsiness shelter...</t>
+  </si>
+  <si>
+    <t>お…眠気休憩所だ…</t>
+  </si>
+  <si>
+    <t>哦…是瞌睡休息所…</t>
+  </si>
+  <si>
+    <t>О… приют для сна…</t>
+  </si>
+  <si>
+    <t>자야겠다...</t>
+  </si>
+  <si>
+    <t>I should sleep...</t>
+  </si>
+  <si>
+    <t>寝よう…</t>
+  </si>
+  <si>
+    <t>我要睡了…</t>
+  </si>
+  <si>
+    <t>Пойду посплю…</t>
+  </si>
+  <si>
+    <t>상점처럼 보이는데... 거래소네?</t>
+  </si>
+  <si>
+    <t>It looks like a shop... but it's a trading post?</t>
+  </si>
+  <si>
+    <t>店みたいだけど…取引所だ？</t>
+  </si>
+  <si>
+    <t>看起来像商店…但是是交易所？</t>
+  </si>
+  <si>
+    <t>Похоже на магазин… но это торговая площадка?</t>
+  </si>
+  <si>
+    <t>운이 좋으면, 비싼 아이템을 받을 수 있잖아...?</t>
+  </si>
+  <si>
+    <t>If I'm lucky, I might get an expensive item...?</t>
+  </si>
+  <si>
+    <t>運が良ければ、高価なアイテムが手に入るよね…？</t>
+  </si>
+  <si>
+    <t>运气好的话，说不定能拿到贵重物品…？</t>
+  </si>
+  <si>
+    <t>Если повезёт, можно получить дорогую вещь…?</t>
+  </si>
+  <si>
+    <t>한번 교환해봐야겠다.</t>
+  </si>
+  <si>
+    <t>I should try exchanging once.</t>
+  </si>
+  <si>
+    <t>一度交換してみよう。</t>
+  </si>
+  <si>
+    <t>得试着交换一下。</t>
+  </si>
+  <si>
+    <t>Надо попробовать обменять.</t>
+  </si>
+  <si>
+    <t>아니? 폭풍우다!!!</t>
+  </si>
+  <si>
+    <t>What? It's a storm!!!</t>
+  </si>
+  <si>
+    <t>えっ？嵐だ!!!</t>
+  </si>
+  <si>
+    <t>什么？暴风雨!!!</t>
+  </si>
+  <si>
+    <t>Что? Буря!!!</t>
+  </si>
+  <si>
+    <t>기차가 무거워서 안 날아가겠지만...!</t>
+  </si>
+  <si>
+    <t>The train is heavy so it won't fly away...!</t>
+  </si>
+  <si>
+    <t>列車が重いから飛ばないだろうけど…！</t>
+  </si>
+  <si>
+    <t>火车很重，应该不会被吹走…！</t>
+  </si>
+  <si>
+    <t>Поезд тяжёлый, так что не улетит…!</t>
+  </si>
+  <si>
+    <t>그래도 아무거나 꽉 잡고 가자!!!</t>
+  </si>
+  <si>
+    <t>Still, let's hold on tight to something!!!</t>
+  </si>
+  <si>
+    <t>それでも何かにしっかり掴まって行こう!!!</t>
+  </si>
+  <si>
+    <t>还是紧紧抓住什么东西吧!!!</t>
+  </si>
+  <si>
+    <t>Всё равно держись крепче за что-нибудь!!!</t>
+  </si>
+  <si>
+    <t>약국? 병원이 아니라???</t>
+  </si>
+  <si>
+    <t>Pharmacy? Not a hospital???</t>
+  </si>
+  <si>
+    <t>薬局？病院じゃない???</t>
+  </si>
+  <si>
+    <t>药店？不是医院???</t>
+  </si>
+  <si>
+    <t>Аптека? Не больница???</t>
+  </si>
+  <si>
+    <t>약국에는 약을 주긴 하니까, 약을 먹고 회복하면 되지 않을까?</t>
+  </si>
+  <si>
+    <t>Since a pharmacy gives medicine, maybe I can recover by taking some?</t>
+  </si>
+  <si>
+    <t>薬局なら薬をくれるから、薬を飲んで回復できるかな？</t>
+  </si>
+  <si>
+    <t>药店会给药，吃药就能恢复吧？</t>
+  </si>
+  <si>
+    <t>В аптеке дают лекарства, может, восстановлюсь, если приму?</t>
+  </si>
+  <si>
+    <t>약값이 얼마였더라~</t>
+  </si>
+  <si>
+    <t>How much was the medicine price~</t>
+  </si>
+  <si>
+    <t>薬代はいくらだっけ～</t>
+  </si>
+  <si>
+    <t>药费是多少钱来着~</t>
+  </si>
+  <si>
+    <t>Сколько там стоят лекарства~</t>
+  </si>
+  <si>
     <t>응? 갑자기 검문소가...?</t>
   </si>
   <si>
-    <t>Huh? The checkpoint all of a sudden...?</t>
-  </si>
-  <si>
-    <t>ん？急に検問所が…？</t>
-  </si>
-  <si>
-    <t>嗯？突然有检查站...？</t>
-  </si>
-  <si>
-    <t>嗯？突然有檢查站...？</t>
+    <t>Huh? Suddenly a checkpoint...?</t>
+  </si>
+  <si>
+    <t>え？突然検問所が…？</t>
+  </si>
+  <si>
+    <t>嗯？突然出现检查站…？</t>
+  </si>
+  <si>
+    <t>Э? Внезапно пункт проверки…?</t>
   </si>
   <si>
     <t>А? Внезапно контрольно-пропускной пункт...?</t>
   </si>
   <si>
-    <t>내가 듣기로는 검문소가 세금내야한다던데...</t>
-  </si>
-  <si>
-    <t>I heard that checkpoints have to pay taxes...</t>
-  </si>
-  <si>
-    <t>私が聞いたところでは検問所が税金を払わなければならないそうだが···</t>
-  </si>
-  <si>
-    <t>我听说检查站要交税...</t>
-  </si>
-  <si>
-    <t>我聽說檢查站要交稅...</t>
+    <t>내가 들은 바로는 검문소에서 세금을 내야 한다던데...</t>
+  </si>
+  <si>
+    <t>I heard that you have to pay a tax at the checkpoint...</t>
+  </si>
+  <si>
+    <t>聞いたところによると、検問所で税金を払わなきゃいけないらしい…</t>
+  </si>
+  <si>
+    <t>我听说检查站得交税…</t>
+  </si>
+  <si>
+    <t>Слышал, что на пункте проверки надо платить налог…</t>
   </si>
   <si>
     <t>Я слышал, что контрольно-пропускные пункты должны платить налоги...</t>
   </si>
   <si>
-    <t>뭣? 내 골드의 10%나 내야해??</t>
-  </si>
-  <si>
-    <t>What? Do I have to pay 10% of my gold??</t>
-  </si>
-  <si>
-    <t>え？私のゴールドの10%も払わないといけないの？？</t>
-  </si>
-  <si>
-    <t>什么？要交我黄金的10%吗？</t>
-  </si>
-  <si>
-    <t>什麼？要交我黃金的10%嗎？</t>
+    <t>뭐야? 내 골드의 10%나 내야 해??</t>
+  </si>
+  <si>
+    <t>What? I have to pay 10% of my gold??</t>
+  </si>
+  <si>
+    <t>何？ゴールドの10%も払わなきゃいけない??</t>
+  </si>
+  <si>
+    <t>什么？要付10%的金币??</t>
+  </si>
+  <si>
+    <t>Что? Надо отдать 10% золота??</t>
   </si>
   <si>
     <t>Что? Должен ли я заплатить 10% моего золота?</t>
   </si>
   <si>
-    <t>도망칠 곳이 없으니 얌전히 내자</t>
-  </si>
-  <si>
-    <t>There's nowhere to run, so let's keep it calm</t>
-  </si>
-  <si>
-    <t>逃げ場がないからおとなしく出そう</t>
-  </si>
-  <si>
-    <t>无处可逃, 老老实实地交吧</t>
-  </si>
-  <si>
-    <t>無處可逃, 老老實實地交吧</t>
+    <t>도망칠 곳이 없으니 얌전히 내자.</t>
+  </si>
+  <si>
+    <t>Since there's no place to run, let's pay obediently.</t>
+  </si>
+  <si>
+    <t>逃げ場がないから素直に払おう。</t>
+  </si>
+  <si>
+    <t>没地方跑，那就老实交吧。</t>
+  </si>
+  <si>
+    <t>Бежать некуда, так что заплачу спокойно.</t>
   </si>
   <si>
     <t>Некуда бежать, так что давай будем спокойны</t>
+  </si>
+  <si>
+    <t>엇, 병원이다...!!</t>
+  </si>
+  <si>
+    <t>Oh, it's a hospital...!!</t>
+  </si>
+  <si>
+    <t>おっ、病院だ…!!</t>
+  </si>
+  <si>
+    <t>哦，是医院…!!</t>
+  </si>
+  <si>
+    <t>О, больница…!!</t>
+  </si>
+  <si>
+    <t>어지간한 회복약보다 낫겠다!</t>
+  </si>
+  <si>
+    <t>This is better than an ordinary recovery potion!</t>
+  </si>
+  <si>
+    <t>普通の回復薬よりいいね！</t>
+  </si>
+  <si>
+    <t>比一般的恢复药好！</t>
+  </si>
+  <si>
+    <t>Это лучше обычного зелья восстановления!</t>
+  </si>
+  <si>
+    <t>얼마나 회복되느냐에 따라 드는 비용이 다를 거야...?</t>
+  </si>
+  <si>
+    <t>The cost will vary depending on how much it recovers...?</t>
+  </si>
+  <si>
+    <t>回復する量によって費用が違うかな…？</t>
+  </si>
+  <si>
+    <t>恢复多少取决于费用不同吧…？</t>
+  </si>
+  <si>
+    <t>Стоимость будет зависеть от того, сколько восстановлю…?</t>
+  </si>
+  <si>
+    <t>오, 뽑기방이다!</t>
+  </si>
+  <si>
+    <t>Oh, it's a gacha room!</t>
+  </si>
+  <si>
+    <t>お、ガチャ部屋だ！</t>
+  </si>
+  <si>
+    <t>哦，抽奖房！</t>
+  </si>
+  <si>
+    <t>О, комната лотереи!</t>
+  </si>
+  <si>
+    <t>어떤 걸 뽑아야 잘 뽑았다고 소문이 날까?</t>
+  </si>
+  <si>
+    <t>What should I draw to get a reputation for a good pull?</t>
+  </si>
+  <si>
+    <t>何を引けば良い引きだと噂になるかな？</t>
+  </si>
+  <si>
+    <t>抽什么才能传出抽得好名声？</t>
+  </si>
+  <si>
+    <t>Что вытянуть, чтобы прослыть удачливым?</t>
+  </si>
+  <si>
+    <t>뽑을수록 금액이 올라가니 주의하자.</t>
+  </si>
+  <si>
+    <t>Be careful, the cost goes up the more you draw.</t>
+  </si>
+  <si>
+    <t>引けば引くほど金額が上がるから注意しよう。</t>
+  </si>
+  <si>
+    <t>抽得越多费用越高，注意点。</t>
+  </si>
+  <si>
+    <t>Чем больше тянешь, тем выше цена, будь осторожен.</t>
+  </si>
+  <si>
+    <t>응? 암시장이다.</t>
+  </si>
+  <si>
+    <t>Huh? It's a black market.</t>
+  </si>
+  <si>
+    <t>え？闇市場だ。</t>
+  </si>
+  <si>
+    <t>嗯？黑市。</t>
+  </si>
+  <si>
+    <t>Э? Чёрный рынок.</t>
+  </si>
+  <si>
+    <t>불법이잖아? 신고해야 하는 거 아냐...?</t>
+  </si>
+  <si>
+    <t>It's illegal, right? Shouldn't we report it...?</t>
+  </si>
+  <si>
+    <t>違法だよね？通報すべきじゃない…？</t>
+  </si>
+  <si>
+    <t>这是非法的吧？要不要举报…？</t>
+  </si>
+  <si>
+    <t>Это незаконно, да? Надо сообщить…?</t>
+  </si>
+  <si>
+    <t>그래도 한 번쯤은 상품을 확인해볼까?</t>
+  </si>
+  <si>
+    <t>Still, should I check the goods once?</t>
+  </si>
+  <si>
+    <t>それでも一度くらい商品を確認してみようか？</t>
+  </si>
+  <si>
+    <t>不过还是看看商品吧？</t>
+  </si>
+  <si>
+    <t>Всё равно стоит глянуть на товары?</t>
+  </si>
+  <si>
+    <t>오래된 훈련실이네?</t>
+  </si>
+  <si>
+    <t>It's an old training room?</t>
+  </si>
+  <si>
+    <t>古い訓練所だね？</t>
+  </si>
+  <si>
+    <t>是老旧的训练室？</t>
+  </si>
+  <si>
+    <t>Это старый тренировочный зал?</t>
+  </si>
+  <si>
+    <t>쓸 만한 운동 기구는 몇 가지 보이고.</t>
+  </si>
+  <si>
+    <t>There are a few usable exercise machines.</t>
+  </si>
+  <si>
+    <t>使える運動器具がいくつか見えるよ。</t>
+  </si>
+  <si>
+    <t>能用的运动器械有几件。</t>
+  </si>
+  <si>
+    <t>Пара пригодных тренажёров видно.</t>
+  </si>
+  <si>
+    <t>훈련해서 내 능력을 끌어올려볼까?</t>
+  </si>
+  <si>
+    <t>Shall I train to boost my abilities?</t>
+  </si>
+  <si>
+    <t>訓練して能力を上げてみようか？</t>
+  </si>
+  <si>
+    <t>训练一下提升能力吧？</t>
+  </si>
+  <si>
+    <t>Потренируюсь, чтобы повысить способности?</t>
+  </si>
+  <si>
+    <t>보급소에 도착했는데, 도움이 필요한 상황인가?</t>
+  </si>
+  <si>
+    <t>Arrived at the supply depot, is this a situation that needs help?</t>
+  </si>
+  <si>
+    <t>補給所に到着したけど、助けが必要な状況かな？</t>
+  </si>
+  <si>
+    <t>到了补给站，这是需要帮助的情况吗？</t>
+  </si>
+  <si>
+    <t>Прибыл на склад снабжения, нужна ли помощь?</t>
+  </si>
+  <si>
+    <t>딱 봐도 크레인을 조종하기 어려워서 쩔쩔매고 있네.</t>
+  </si>
+  <si>
+    <t>It looks like they're struggling to operate the crane.</t>
+  </si>
+  <si>
+    <t>一見して、クレーンを操作するのが難しそうで苦労してるね。</t>
+  </si>
+  <si>
+    <t>一看就知道，他们操作起重机很困难，忙得不可开交。</t>
+  </si>
+  <si>
+    <t>Похоже, они мучаются, управляя краном.</t>
+  </si>
+  <si>
+    <t>이야기를 들어보니, 잘 쌓아주면 나중에 지원을 해준다고?</t>
+  </si>
+  <si>
+    <t>I heard that if I stack it well, they'll provide support later?</t>
+  </si>
+  <si>
+    <t>話を聞いてみると、うまく積めば後で支援してくれるって？</t>
+  </si>
+  <si>
+    <t>听他们说，如果堆得好，之后会提供支援？</t>
+  </si>
+  <si>
+    <t>Слышал, что если аккуратно сложу, потом помогут?</t>
+  </si>
+  <si>
+    <t>묵혀두었던 크레인 자격증이 도움이 될 줄이야. 도와주고 가자.</t>
+  </si>
+  <si>
+    <t>Who knew the crane license I had stashed away would be useful? Let's help and go.</t>
+  </si>
+  <si>
+    <t>仕舞い込んでたクレーン免許が役に立つなんてね。助けて行こう。</t>
+  </si>
+  <si>
+    <t>没想到放着没用的起重机执照能派上用场，帮一把再走吧。</t>
+  </si>
+  <si>
+    <t>Кто бы подумал, что мой старый сертификат крановщика пригодится? Помогу и пойду.</t>
   </si>
   <si>
     <t>Branch</t>
@@ -20685,7 +21300,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -20805,6 +21420,10 @@
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -88205,7 +88824,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="B8" s="3">
         <v>0.0</v>
@@ -88216,46 +88835,54 @@
       <c r="D8" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="41" t="s">
         <v>6812</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="29" t="s">
         <v>6813</v>
       </c>
-      <c r="N8" s="40" t="s">
+      <c r="N8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="29" t="s">
         <v>6814</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="3" t="s">
         <v>1281</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="29" t="s">
         <v>6815</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="S8" s="1" t="s">
+      <c r="R8" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S8" s="29" t="s">
         <v>6816</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" s="3" t="s">
         <v>1285</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>6817</v>
-      </c>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="B9" s="1">
         <v>0.0</v>
@@ -88269,43 +88896,40 @@
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>6818</v>
+      <c r="K9" s="41" t="s">
+        <v>6817</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>6819</v>
+      <c r="M9" s="29" t="s">
+        <v>6818</v>
       </c>
       <c r="N9" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>6820</v>
+      <c r="O9" s="29" t="s">
+        <v>6819</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="29" t="s">
+        <v>6820</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S9" s="29" t="s">
         <v>6821</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>6822</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="U9" s="1" t="s">
-        <v>6823</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="B10" s="1">
         <v>0.0</v>
@@ -88319,43 +88943,40 @@
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>6824</v>
+      <c r="K10" s="41" t="s">
+        <v>6822</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>6825</v>
+      <c r="M10" s="29" t="s">
+        <v>6823</v>
       </c>
       <c r="N10" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>6826</v>
+      <c r="O10" s="29" t="s">
+        <v>6824</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>6827</v>
+      <c r="Q10" s="29" t="s">
+        <v>6825</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>6828</v>
+        <v>1283</v>
+      </c>
+      <c r="S10" s="29" t="s">
+        <v>6826</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="U10" s="1" t="s">
-        <v>6829</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="B11" s="1">
         <v>0.0</v>
@@ -88369,45 +88990,2216 @@
       <c r="J11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>6830</v>
+      <c r="K11" s="41" t="s">
+        <v>6827</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>6831</v>
+      <c r="M11" s="29" t="s">
+        <v>6828</v>
       </c>
       <c r="N11" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>6832</v>
+      <c r="O11" s="29" t="s">
+        <v>6829</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>6833</v>
+      <c r="Q11" s="29" t="s">
+        <v>6830</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>6834</v>
+        <v>1283</v>
+      </c>
+      <c r="S11" s="29" t="s">
+        <v>6831</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="U11" s="1" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>6832</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>6833</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>6834</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q12" s="29" t="s">
         <v>6835</v>
       </c>
+      <c r="R12" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S12" s="29" t="s">
+        <v>6836</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>6837</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>6838</v>
+      </c>
+      <c r="N13" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>6839</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>6840</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S13" s="29" t="s">
+        <v>6841</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>6842</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>6843</v>
+      </c>
+      <c r="N14" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>6844</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>6845</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S14" s="29" t="s">
+        <v>6846</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>6847</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>6848</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>6849</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>6850</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S15" s="29" t="s">
+        <v>6851</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>6852</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>6853</v>
+      </c>
+      <c r="N16" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>6854</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>6855</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S16" s="29" t="s">
+        <v>6856</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>1285</v>
+      </c>
     </row>
     <row r="17">
-      <c r="L17" s="3"/>
+      <c r="A17" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="41" t="s">
+        <v>6857</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>6858</v>
+      </c>
+      <c r="N17" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>6859</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>6860</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S17" s="29" t="s">
+        <v>6861</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>1285</v>
+      </c>
     </row>
     <row r="18">
-      <c r="L18" s="3"/>
+      <c r="A18" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="41" t="s">
+        <v>6862</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>6863</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>6864</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>6865</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S18" s="29" t="s">
+        <v>6866</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>6867</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>6868</v>
+      </c>
+      <c r="N19" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>6869</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>6870</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S19" s="29" t="s">
+        <v>6871</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>6872</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>6873</v>
+      </c>
+      <c r="N20" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>6874</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>6875</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S20" s="29" t="s">
+        <v>6876</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>6877</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>6878</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>6879</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>6880</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S21" s="29" t="s">
+        <v>6881</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="41" t="s">
+        <v>6882</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>6883</v>
+      </c>
+      <c r="N22" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="29" t="s">
+        <v>6884</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>6885</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S22" s="29" t="s">
+        <v>6886</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>6887</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>6888</v>
+      </c>
+      <c r="N23" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="29" t="s">
+        <v>6889</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>6890</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S23" s="29" t="s">
+        <v>6891</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="41" t="s">
+        <v>6892</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>6893</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>6894</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>6895</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S24" s="29" t="s">
+        <v>6896</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="41" t="s">
+        <v>6897</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>6898</v>
+      </c>
+      <c r="N25" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>6899</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q25" s="29" t="s">
+        <v>6900</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S25" s="29" t="s">
+        <v>6901</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="41" t="s">
+        <v>6902</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>6903</v>
+      </c>
+      <c r="N26" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" s="29" t="s">
+        <v>6904</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>6905</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S26" s="29" t="s">
+        <v>6906</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="41" t="s">
+        <v>6907</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>6908</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>6909</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q27" s="29" t="s">
+        <v>6910</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S27" s="29" t="s">
+        <v>6911</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="41" t="s">
+        <v>6912</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>6913</v>
+      </c>
+      <c r="N28" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>6914</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q28" s="29" t="s">
+        <v>6915</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S28" s="29" t="s">
+        <v>6916</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="41" t="s">
+        <v>6917</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" s="29" t="s">
+        <v>6918</v>
+      </c>
+      <c r="N29" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29" s="29" t="s">
+        <v>6919</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q29" s="29" t="s">
+        <v>6920</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S29" s="29" t="s">
+        <v>6921</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="41" t="s">
+        <v>6922</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>6923</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="29" t="s">
+        <v>6924</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q30" s="29" t="s">
+        <v>6925</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S30" s="29" t="s">
+        <v>6926</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="41" t="s">
+        <v>6927</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="29" t="s">
+        <v>6928</v>
+      </c>
+      <c r="N31" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="29" t="s">
+        <v>6929</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q31" s="29" t="s">
+        <v>6930</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S31" s="29" t="s">
+        <v>6931</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="41" t="s">
+        <v>6932</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>6933</v>
+      </c>
+      <c r="N32" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O32" s="29" t="s">
+        <v>6934</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q32" s="29" t="s">
+        <v>6935</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S32" s="29" t="s">
+        <v>6936</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="41" t="s">
+        <v>6937</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" s="41" t="s">
+        <v>6938</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O33" s="41" t="s">
+        <v>6939</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q33" s="41" t="s">
+        <v>6940</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S33" s="41" t="s">
+        <v>6941</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>6942</v>
+      </c>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="41" t="s">
+        <v>6943</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" s="41" t="s">
+        <v>6944</v>
+      </c>
+      <c r="N34" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O34" s="41" t="s">
+        <v>6945</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q34" s="41" t="s">
+        <v>6946</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S34" s="41" t="s">
+        <v>6947</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>6948</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="41" t="s">
+        <v>6949</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="41" t="s">
+        <v>6950</v>
+      </c>
+      <c r="N35" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="41" t="s">
+        <v>6951</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q35" s="41" t="s">
+        <v>6952</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S35" s="41" t="s">
+        <v>6953</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>6954</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="41" t="s">
+        <v>6955</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" s="41" t="s">
+        <v>6956</v>
+      </c>
+      <c r="N36" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O36" s="41" t="s">
+        <v>6957</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q36" s="41" t="s">
+        <v>6958</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S36" s="41" t="s">
+        <v>6959</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>6960</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="41" t="s">
+        <v>6961</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" s="29" t="s">
+        <v>6962</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O37" s="29" t="s">
+        <v>6963</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q37" s="29" t="s">
+        <v>6964</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S37" s="29" t="s">
+        <v>6965</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="41" t="s">
+        <v>6966</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" s="29" t="s">
+        <v>6967</v>
+      </c>
+      <c r="N38" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O38" s="29" t="s">
+        <v>6968</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q38" s="29" t="s">
+        <v>6969</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S38" s="29" t="s">
+        <v>6970</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="41" t="s">
+        <v>6971</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" s="29" t="s">
+        <v>6972</v>
+      </c>
+      <c r="N39" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O39" s="29" t="s">
+        <v>6973</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q39" s="29" t="s">
+        <v>6974</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S39" s="29" t="s">
+        <v>6975</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O40" s="29"/>
+      <c r="P40" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O41" s="29"/>
+      <c r="P41" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+    </row>
+    <row r="42" ht="15.0" customHeight="1">
+      <c r="A42" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="29" t="s">
+        <v>6976</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" s="29" t="s">
+        <v>6977</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O42" s="29" t="s">
+        <v>6978</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q42" s="29" t="s">
+        <v>6979</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S42" s="29" t="s">
+        <v>6980</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="37">
+        <v>14.0</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="29" t="s">
+        <v>6981</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" s="29" t="s">
+        <v>6982</v>
+      </c>
+      <c r="N43" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O43" s="29" t="s">
+        <v>6983</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q43" s="29" t="s">
+        <v>6984</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S43" s="29" t="s">
+        <v>6985</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U43" s="42"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="42"/>
+      <c r="X43" s="42"/>
+      <c r="Y43" s="42"/>
+      <c r="Z43" s="42"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="41" t="s">
+        <v>6986</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" s="29" t="s">
+        <v>6987</v>
+      </c>
+      <c r="N44" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O44" s="29" t="s">
+        <v>6988</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q44" s="29" t="s">
+        <v>6989</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S44" s="29" t="s">
+        <v>6990</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="41" t="s">
+        <v>6991</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" s="29" t="s">
+        <v>6992</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O45" s="29" t="s">
+        <v>6993</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q45" s="29" t="s">
+        <v>6994</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S45" s="29" t="s">
+        <v>6995</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="15"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="41" t="s">
+        <v>6996</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" s="29" t="s">
+        <v>6997</v>
+      </c>
+      <c r="N46" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O46" s="29" t="s">
+        <v>6998</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q46" s="29" t="s">
+        <v>6999</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S46" s="29" t="s">
+        <v>7000</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="41" t="s">
+        <v>7001</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" s="29" t="s">
+        <v>7002</v>
+      </c>
+      <c r="N47" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O47" s="29" t="s">
+        <v>7003</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q47" s="29" t="s">
+        <v>7004</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S47" s="29" t="s">
+        <v>7005</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="41" t="s">
+        <v>7006</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" s="29" t="s">
+        <v>7007</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O48" s="29" t="s">
+        <v>7008</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q48" s="29" t="s">
+        <v>7009</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S48" s="29" t="s">
+        <v>7010</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="41" t="s">
+        <v>7011</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" s="29" t="s">
+        <v>7012</v>
+      </c>
+      <c r="N49" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O49" s="29" t="s">
+        <v>7013</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q49" s="29" t="s">
+        <v>7014</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S49" s="29" t="s">
+        <v>7015</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" s="41" t="s">
+        <v>7016</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" s="29" t="s">
+        <v>7017</v>
+      </c>
+      <c r="N50" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O50" s="29" t="s">
+        <v>7018</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q50" s="29" t="s">
+        <v>7019</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S50" s="29" t="s">
+        <v>7020</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" s="41" t="s">
+        <v>7021</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" s="29" t="s">
+        <v>7022</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O51" s="29" t="s">
+        <v>7023</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q51" s="29" t="s">
+        <v>7024</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S51" s="29" t="s">
+        <v>7025</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="15"/>
+      <c r="Z51" s="15"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52" s="41" t="s">
+        <v>7026</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52" s="29" t="s">
+        <v>7027</v>
+      </c>
+      <c r="N52" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O52" s="29" t="s">
+        <v>7028</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q52" s="29" t="s">
+        <v>7029</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S52" s="29" t="s">
+        <v>7030</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" s="41" t="s">
+        <v>7031</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" s="29" t="s">
+        <v>7032</v>
+      </c>
+      <c r="N53" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O53" s="29" t="s">
+        <v>7033</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q53" s="29" t="s">
+        <v>7034</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S53" s="29" t="s">
+        <v>7035</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54" s="41" t="s">
+        <v>7036</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M54" s="29" t="s">
+        <v>7037</v>
+      </c>
+      <c r="N54" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O54" s="29" t="s">
+        <v>7038</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q54" s="29" t="s">
+        <v>7039</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S54" s="29" t="s">
+        <v>7040</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>1285</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -88426,7 +91218,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>6836</v>
+        <v>7041</v>
       </c>
       <c r="B1" s="1">
         <v>0.0</v>
@@ -88460,13 +91252,13 @@
       <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="43" t="s">
         <v>531</v>
       </c>
-      <c r="E2" s="42" t="s">
-        <v>6837</v>
-      </c>
-      <c r="F2" s="43" t="s">
+      <c r="E2" s="44" t="s">
+        <v>7042</v>
+      </c>
+      <c r="F2" s="45" t="s">
         <v>1087</v>
       </c>
     </row>
@@ -88480,10 +91272,10 @@
       <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="44" t="s">
         <v>1288</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="45" t="s">
         <v>1087</v>
       </c>
     </row>
@@ -88497,7 +91289,7 @@
       <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="45" t="s">
         <v>1087</v>
       </c>
     </row>
@@ -88511,20 +91303,20 @@
       <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="45" t="s">
         <v>1087</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="46" t="s">
         <v>1600</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>3120</v>
       </c>
-      <c r="G5" s="41" t="s">
-        <v>6838</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>6839</v>
+      <c r="G5" s="43" t="s">
+        <v>7043</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>7044</v>
       </c>
     </row>
   </sheetData>
